--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -13,6 +13,198 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xoposhiy</author>
+  </authors>
+  <commentList>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Бесплатная медицина и бесплатное образование относятся к числу важнейших, неприкосновенных социальных гарантий</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Государства бывшего СССР относятся к сфере особых внешнеполитических интересов России.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>России нужны более высокие таможенные пошлины для защиты отечественного производителя в целом ряде отраслей экономики.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Необходим пересмотр итогов приватизации. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Государственные корпорации — это эффективный инструмент управления стратегическими отраслями национальной экономики.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>В Конституции Российской Федерации должен быть закреплен особый статус русских как титульной нации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Трудовая миграция иностранных граждан должна быть строго ограничена.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Плоская ставка подоходного налога должна сохраняться в течение длительного времени</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Единый государственный экзамен (ЕГЭ), при должном качестве администрирования, является оптимальной формой конкурсного отбора студентов вузов.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Россия должна стремиться к тесной политической и экономической интеграции с Евросоюзом.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Существенная часть трудовой пенсии должна формироваться из накопительной части.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Роль государства в экономике должна быть сведена к минимуму. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Российская армия должна формироваться исключительно на контрактной основе.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +306,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,9 +432,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -252,9 +448,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +486,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -596,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA172"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A131" sqref="A131:XFD132"/>
     </sheetView>
   </sheetViews>
@@ -618,83 +817,83 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="12">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12">
+    <row r="1" spans="1:26" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>6</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>7</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>8</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>9</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>10</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>11</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>12</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>13</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>14</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="11">
         <v>15</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="11">
         <v>16</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="11">
         <v>17</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="11">
         <v>18</v>
       </c>
-      <c r="T1" s="12">
+      <c r="T1" s="11">
         <v>19</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="11">
         <v>20</v>
       </c>
-      <c r="V1" s="12">
+      <c r="V1" s="11">
         <v>21</v>
       </c>
-      <c r="W1" s="12">
+      <c r="W1" s="11">
         <v>22</v>
       </c>
-      <c r="X1" s="12">
+      <c r="X1" s="11">
         <v>23</v>
       </c>
-      <c r="Y1" s="12">
+      <c r="Y1" s="11">
         <v>24</v>
       </c>
-      <c r="Z1" s="12">
+      <c r="Z1" s="11">
         <v>25</v>
       </c>
     </row>
@@ -9862,7 +10061,7 @@
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="5">
@@ -9967,7 +10166,7 @@
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="5">
@@ -10072,7 +10271,7 @@
       </c>
     </row>
     <row r="124" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="5">
@@ -10177,7 +10376,7 @@
       </c>
     </row>
     <row r="125" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B125" s="1">
@@ -10282,7 +10481,7 @@
       </c>
     </row>
     <row r="126" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="1">
@@ -10387,7 +10586,7 @@
       </c>
     </row>
     <row r="127" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="4">
@@ -10417,13 +10616,13 @@
       <c r="J127" s="4">
         <v>9</v>
       </c>
-      <c r="K127" s="16">
+      <c r="K127" s="15">
         <v>10</v>
       </c>
       <c r="L127" s="4">
         <v>11</v>
       </c>
-      <c r="M127" s="16">
+      <c r="M127" s="15">
         <v>12</v>
       </c>
       <c r="N127" s="4">
@@ -10432,7 +10631,7 @@
       <c r="O127" s="4">
         <v>14</v>
       </c>
-      <c r="P127" s="16">
+      <c r="P127" s="15">
         <v>15</v>
       </c>
       <c r="Q127" s="4">
@@ -10441,7 +10640,7 @@
       <c r="R127" s="4">
         <v>17</v>
       </c>
-      <c r="S127" s="16">
+      <c r="S127" s="15">
         <v>18</v>
       </c>
       <c r="T127" s="4">
@@ -10453,7 +10652,7 @@
       <c r="V127" s="4">
         <v>21</v>
       </c>
-      <c r="W127" s="16">
+      <c r="W127" s="15">
         <v>22</v>
       </c>
       <c r="X127" s="4">
@@ -10462,7 +10661,7 @@
       <c r="Y127" s="4">
         <v>24</v>
       </c>
-      <c r="Z127" s="16">
+      <c r="Z127" s="15">
         <v>25</v>
       </c>
     </row>
@@ -10483,15 +10682,15 @@
       <c r="Y128"/>
     </row>
     <row r="129" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
-      <c r="T129" s="15"/>
-      <c r="U129" s="15"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14"/>
+      <c r="U129" s="14"/>
       <c r="W129"/>
       <c r="X129"/>
       <c r="Y129"/>
@@ -10502,31 +10701,31 @@
       <c r="Y130"/>
     </row>
     <row r="131" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="8"/>
-      <c r="X131" s="8"/>
+      <c r="B131" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34"/>
+      <c r="N131" s="34"/>
+      <c r="O131" s="34"/>
+      <c r="P131" s="34"/>
+      <c r="Q131" s="34"/>
+      <c r="R131" s="34"/>
+      <c r="S131" s="34"/>
+      <c r="T131" s="34"/>
+      <c r="U131" s="34"/>
+      <c r="V131" s="34"/>
+      <c r="W131" s="34"/>
+      <c r="X131" s="34"/>
       <c r="Y131"/>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
@@ -10553,8 +10752,8 @@
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="10"/>
+      <c r="W132" s="8"/>
+      <c r="X132" s="9"/>
       <c r="Y132"/>
     </row>
     <row r="133" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13420,186 +13619,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="A1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="18"/>
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+    </row>
+    <row r="3" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="16"/>
     </row>
     <row r="4" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
         <v>4</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>8</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>12</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>15</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>16</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>17</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>6</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <v>7</v>
       </c>
-      <c r="L4" s="27">
-        <v>2</v>
-      </c>
-      <c r="M4" s="27">
+      <c r="L4" s="25">
+        <v>2</v>
+      </c>
+      <c r="M4" s="25">
         <v>18</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="25">
         <v>19</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="25">
         <v>14</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="26">
         <v>3</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="17">
         <v>21</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="17">
         <v>22</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="17">
         <v>23</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="24">
         <v>10</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="25">
         <v>13</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="25">
         <v>11</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="25">
         <v>20</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="25">
         <v>24</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="26">
         <v>9</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="17">
         <v>25</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -13626,25 +13825,25 @@
       <c r="I5" s="5">
         <v>-0.14692834634061069</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <v>-9.8230575298086001E-2</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <v>-0.16133327699994318</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="29">
         <v>-0.18214478965583</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <v>-8.5987913709947128E-2</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="28">
         <v>-1.1361827159631528E-2</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="28">
         <v>-0.27476490915870477</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="30">
         <v>-8.8161202160043875E-2</v>
       </c>
       <c r="Q5" s="5">
@@ -13656,33 +13855,33 @@
       <c r="S5" s="5">
         <v>-4.1595243607084192E-2</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="27">
         <v>6.4659755408774999E-2</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="28">
         <v>4.9902682409816795E-2</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="28">
         <v>0.11099863578608991</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="28">
         <v>0.13656238722891059</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="28">
         <v>0.22895154620379699</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="30">
         <v>0.11031164095248254</v>
       </c>
       <c r="Z5" s="5">
         <v>-3.9056857259401501E-2</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -13709,25 +13908,25 @@
       <c r="I6" s="5">
         <v>-0.12822228165453411</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="27">
         <v>6.7914260728438064E-2</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="28">
         <v>-7.8465187820372581E-2</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="29">
         <v>4.3481161394546004E-2</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="28">
         <v>0.24225681116204989</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="28">
         <v>4.4837848968534266E-2</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="28">
         <v>4.9226423377449487E-2</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="30">
         <v>9.0354902517995009E-2</v>
       </c>
       <c r="Q6" s="5">
@@ -13739,33 +13938,33 @@
       <c r="S6" s="5">
         <v>7.5173293186625148E-2</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <v>-0.23669080045742036</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="28">
         <v>-0.12720436057296586</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="28">
         <v>-7.01428717975493E-2</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="28">
         <v>-0.16563066050225134</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="28">
         <v>-3.2959346998137296E-2</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="30">
         <v>-1.2517730639381331E-3</v>
       </c>
       <c r="Z6" s="5">
         <v>-5.3596856596641269E-2</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -13792,25 +13991,25 @@
       <c r="I7" s="5">
         <v>0.19508015865187464</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <v>-2.11207317362316E-2</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="28">
         <v>0.13183885112665208</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <v>0.10754335714866142</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="28">
         <v>-0.21867894524070053</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="28">
         <v>-0.11166383701469335</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="28">
         <v>-8.1334737140329738E-2</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="30">
         <v>8.7115410911312557E-2</v>
       </c>
       <c r="Q7" s="5">
@@ -13822,33 +14021,33 @@
       <c r="S7" s="5">
         <v>0.10099468544210755</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="27">
         <v>0.14502500441352792</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="28">
         <v>0.11541975584565882</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="28">
         <v>0.20649519651887238</v>
       </c>
-      <c r="W7" s="30">
+      <c r="W7" s="28">
         <v>0.16077693163343895</v>
       </c>
-      <c r="X7" s="30">
+      <c r="X7" s="28">
         <v>0.17970186541018943</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Y7" s="30">
         <v>2.3190144951251889E-2</v>
       </c>
       <c r="Z7" s="5">
         <v>0.26106198185287238</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AA7" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -13875,25 +14074,25 @@
       <c r="I8" s="5">
         <v>1.9723681573208564E-2</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="27">
         <v>0.15352602971951751</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="28">
         <v>1.922497056300021E-2</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="29">
         <v>-0.10360906535666387</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="28">
         <v>-3.1870858785940169E-2</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="28">
         <v>-0.2912054877170282</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="28">
         <v>-5.7926772692687492E-2</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="30">
         <v>-9.7165773500034525E-2</v>
       </c>
       <c r="Q8" s="5">
@@ -13905,33 +14104,33 @@
       <c r="S8" s="5">
         <v>0.19341862011907732</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="27">
         <v>2.3829140851003613E-2</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="28">
         <v>-6.975638473724767E-3</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="28">
         <v>0.18821312498082488</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="28">
         <v>8.6684123033595517E-2</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="28">
         <v>0.25666932971464768</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="30">
         <v>0.35359573766636215</v>
       </c>
       <c r="Z8" s="5">
         <v>-2.7711955959579735E-2</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AA8" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>12</v>
       </c>
       <c r="B9" s="1">
@@ -13958,25 +14157,25 @@
       <c r="I9" s="5">
         <v>-0.3899035770872446</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <v>-0.13487592732820733</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="28">
         <v>-5.086780989479369E-2</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="29">
         <v>-6.2432447279098906E-2</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="28">
         <v>3.2846916273464644E-2</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="28">
         <v>-3.1062221113246732E-2</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="28">
         <v>0.3490647378327969</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="30">
         <v>0.13312456211023102</v>
       </c>
       <c r="Q9" s="5">
@@ -13988,33 +14187,33 @@
       <c r="S9" s="5">
         <v>0.1170522345441356</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <v>4.6562410464525063E-2</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="28">
         <v>-2.3335663681629842E-2</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="28">
         <v>-0.11988613400536688</v>
       </c>
-      <c r="W9" s="30">
+      <c r="W9" s="28">
         <v>-6.9811238865750075E-3</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="28">
         <v>8.291082445887131E-2</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="30">
         <v>-3.7824488634140847E-2</v>
       </c>
       <c r="Z9" s="5">
         <v>-3.6695747298216418E-2</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>15</v>
       </c>
       <c r="B10" s="1">
@@ -14041,25 +14240,25 @@
       <c r="I10" s="5">
         <v>-8.8732195170677555E-2</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <v>9.7020639301301878E-2</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="28">
         <v>-6.3052511031610511E-2</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <v>8.2448009128863006E-2</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="28">
         <v>0.15311755351276363</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="28">
         <v>-2.8897545230377266E-2</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="28">
         <v>0.17594960459177295</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="30">
         <v>-7.4784883205154681E-2</v>
       </c>
       <c r="Q10" s="5">
@@ -14071,33 +14270,33 @@
       <c r="S10" s="5">
         <v>0.10568928011285003</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="27">
         <v>-0.11264260992621762</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="28">
         <v>-0.13106068773519017</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="28">
         <v>-0.1327450400459651</v>
       </c>
-      <c r="W10" s="30">
+      <c r="W10" s="28">
         <v>-0.21845639140154974</v>
       </c>
-      <c r="X10" s="30">
+      <c r="X10" s="28">
         <v>-3.6742029591663432E-3</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="30">
         <v>4.0865037190951588E-2</v>
       </c>
       <c r="Z10" s="5">
         <v>-0.25403953652950756</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA10" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>16</v>
       </c>
       <c r="B11" s="1">
@@ -14124,25 +14323,25 @@
       <c r="I11" s="5">
         <v>-7.7900395209908962E-2</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <v>3.2216440613423887E-2</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="28">
         <v>1.3062510584705197E-2</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="29">
         <v>-4.9900695886495219E-2</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="28">
         <v>-2.2405242798754707E-2</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="28">
         <v>-4.5543795720906208E-2</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="28">
         <v>-0.1202225760656362</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="30">
         <v>-3.0787456944791836E-2</v>
       </c>
       <c r="Q11" s="5">
@@ -14154,33 +14353,33 @@
       <c r="S11" s="5">
         <v>4.5582014297170393E-3</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="27">
         <v>-5.7426047417467381E-2</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="28">
         <v>-3.477296876272179E-2</v>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="28">
         <v>-1.9931019865757505E-2</v>
       </c>
-      <c r="W11" s="30">
+      <c r="W11" s="28">
         <v>-2.6591571301047062E-3</v>
       </c>
-      <c r="X11" s="30">
+      <c r="X11" s="28">
         <v>2.4839623285128322E-2</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="30">
         <v>0.10796827700400775</v>
       </c>
       <c r="Z11" s="5">
         <v>-0.25414541824091613</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>17</v>
       </c>
       <c r="B12" s="1">
@@ -14207,25 +14406,25 @@
       <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <v>8.6253822598997998E-2</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="28">
         <v>0.15181622313790993</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="29">
         <v>0.11525634482406223</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="28">
         <v>-2.4998759449622071E-2</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="28">
         <v>-0.12010450393608642</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="28">
         <v>-0.15075781262368698</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="30">
         <v>-0.14687611507109388</v>
       </c>
       <c r="Q12" s="5">
@@ -14237,33 +14436,33 @@
       <c r="S12" s="5">
         <v>7.5642153572622869E-2</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="27">
         <v>-2.6504683508668209E-2</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="28">
         <v>0.19374919871666663</v>
       </c>
-      <c r="V12" s="30">
+      <c r="V12" s="28">
         <v>0.22851600231347036</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="28">
         <v>-3.7096984880948057E-2</v>
       </c>
-      <c r="X12" s="30">
+      <c r="X12" s="28">
         <v>3.3342494837538962E-2</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="30">
         <v>-5.1146668675823605E-3</v>
       </c>
       <c r="Z12" s="5">
         <v>0.24856289411024246</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AA12" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>6</v>
       </c>
       <c r="B13" s="1">
@@ -14290,25 +14489,25 @@
       <c r="I13" s="5">
         <v>8.6253822598997998E-2</v>
       </c>
-      <c r="J13" s="29">
-        <v>1</v>
-      </c>
-      <c r="K13" s="30">
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
+      <c r="K13" s="28">
         <v>0.435635278345685</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="29">
         <v>0.39528747038765844</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="28">
         <v>0.32059792249553865</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="28">
         <v>0.28139255579091083</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="28">
         <v>0.12478417128398646</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="30">
         <v>0.33076189781928195</v>
       </c>
       <c r="Q13" s="5">
@@ -14320,33 +14519,33 @@
       <c r="S13" s="5">
         <v>-0.1307784670802481</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="27">
         <v>-0.32840138427998289</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="28">
         <v>-0.35480375582832596</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="28">
         <v>-0.17698170509936423</v>
       </c>
-      <c r="W13" s="30">
+      <c r="W13" s="28">
         <v>-0.25375583998261037</v>
       </c>
-      <c r="X13" s="30">
+      <c r="X13" s="28">
         <v>-0.3299041945864789</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="30">
         <v>-0.25079739520044575</v>
       </c>
       <c r="Z13" s="5">
         <v>7.856156257298888E-2</v>
       </c>
-      <c r="AA13" s="21">
+      <c r="AA13" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="18">
         <v>7</v>
       </c>
       <c r="B14" s="1">
@@ -14373,25 +14572,25 @@
       <c r="I14" s="5">
         <v>0.15181622313790993</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="27">
         <v>0.435635278345685</v>
       </c>
-      <c r="K14" s="30">
-        <v>1</v>
-      </c>
-      <c r="L14" s="31">
+      <c r="K14" s="28">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29">
         <v>0.49629293421679155</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="28">
         <v>0.28249723186560727</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="28">
         <v>0.3210966622440013</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="28">
         <v>0.24249511657187131</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="30">
         <v>0.26225569843282864</v>
       </c>
       <c r="Q14" s="5">
@@ -14403,33 +14602,33 @@
       <c r="S14" s="5">
         <v>-0.20142321338486413</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="27">
         <v>-0.21489400963115349</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="28">
         <v>-0.28682752740633899</v>
       </c>
-      <c r="V14" s="30">
+      <c r="V14" s="28">
         <v>-0.22777696841973272</v>
       </c>
-      <c r="W14" s="30">
+      <c r="W14" s="28">
         <v>-0.20130738682806631</v>
       </c>
-      <c r="X14" s="30">
+      <c r="X14" s="28">
         <v>-0.33786539992541892</v>
       </c>
-      <c r="Y14" s="32">
+      <c r="Y14" s="30">
         <v>-0.39405789991326584</v>
       </c>
       <c r="Z14" s="5">
         <v>0.16127335014570013</v>
       </c>
-      <c r="AA14" s="21">
+      <c r="AA14" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -14456,25 +14655,25 @@
       <c r="I15" s="5">
         <v>0.11525634482406223</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="27">
         <v>0.39528747038765844</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="28">
         <v>0.49629293421679155</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="29">
         <v>0.99999999999999989</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="28">
         <v>0.43828004006829052</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="28">
         <v>0.43026299315783689</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="28">
         <v>0.36559744351653112</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="30">
         <v>0.32681488788479279</v>
       </c>
       <c r="Q15" s="5">
@@ -14486,33 +14685,33 @@
       <c r="S15" s="5">
         <v>-7.4398212107182879E-2</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="27">
         <v>-0.34379641539660116</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="28">
         <v>-0.34257846731855968</v>
       </c>
-      <c r="V15" s="30">
+      <c r="V15" s="28">
         <v>-0.40202952232214195</v>
       </c>
-      <c r="W15" s="30">
+      <c r="W15" s="28">
         <v>-0.33841391330336296</v>
       </c>
-      <c r="X15" s="30">
+      <c r="X15" s="28">
         <v>-0.501473079312028</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="30">
         <v>-0.38087950786795938</v>
       </c>
       <c r="Z15" s="5">
         <v>4.7374962626922056E-2</v>
       </c>
-      <c r="AA15" s="21">
+      <c r="AA15" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>18</v>
       </c>
       <c r="B16" s="1">
@@ -14539,25 +14738,25 @@
       <c r="I16" s="5">
         <v>-2.4998759449622071E-2</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <v>0.32059792249553865</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="28">
         <v>0.28249723186560727</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="29">
         <v>0.43828004006829052</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="28">
         <v>0.99999999999999978</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="28">
         <v>0.46931595969871104</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="28">
         <v>0.33731725360387321</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="30">
         <v>0.26976350050712733</v>
       </c>
       <c r="Q16" s="5">
@@ -14569,33 +14768,33 @@
       <c r="S16" s="5">
         <v>-7.802108773361062E-2</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="27">
         <v>-0.54334449432543219</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="28">
         <v>-0.46843331784468556</v>
       </c>
-      <c r="V16" s="30">
+      <c r="V16" s="28">
         <v>-0.36991009953442228</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="28">
         <v>-0.47313808691311676</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="28">
         <v>-0.50991653408828075</v>
       </c>
-      <c r="Y16" s="32">
+      <c r="Y16" s="30">
         <v>-0.27785148556861033</v>
       </c>
       <c r="Z16" s="5">
         <v>-3.2756471647741835E-2</v>
       </c>
-      <c r="AA16" s="21">
+      <c r="AA16" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>19</v>
       </c>
       <c r="B17" s="1">
@@ -14622,25 +14821,25 @@
       <c r="I17" s="5">
         <v>-0.12010450393608642</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <v>0.28139255579091083</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="28">
         <v>0.3210966622440013</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="29">
         <v>0.43026299315783689</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="28">
         <v>0.46931595969871104</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="28">
         <v>0.99999999999999989</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="28">
         <v>0.36771073991190234</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="30">
         <v>0.34277718484949499</v>
       </c>
       <c r="Q17" s="5">
@@ -14652,33 +14851,33 @@
       <c r="S17" s="5">
         <v>-0.22079406843313398</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="27">
         <v>-0.27402201796647907</v>
       </c>
-      <c r="U17" s="30">
+      <c r="U17" s="28">
         <v>-0.40036582520398439</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V17" s="28">
         <v>-0.44309243533034198</v>
       </c>
-      <c r="W17" s="30">
+      <c r="W17" s="28">
         <v>-0.34296076845262818</v>
       </c>
-      <c r="X17" s="30">
+      <c r="X17" s="28">
         <v>-0.66417254053371766</v>
       </c>
-      <c r="Y17" s="32">
+      <c r="Y17" s="30">
         <v>-0.42761920743098453</v>
       </c>
       <c r="Z17" s="5">
         <v>-1.8726352412337069E-2</v>
       </c>
-      <c r="AA17" s="21">
+      <c r="AA17" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>14</v>
       </c>
       <c r="B18" s="1">
@@ -14705,25 +14904,25 @@
       <c r="I18" s="5">
         <v>-0.15075781262368698</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="27">
         <v>0.12478417128398646</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="28">
         <v>0.24249511657187131</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <v>0.36559744351653112</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="28">
         <v>0.33731725360387321</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="28">
         <v>0.36771073991190234</v>
       </c>
-      <c r="O18" s="30">
-        <v>1</v>
-      </c>
-      <c r="P18" s="32">
+      <c r="O18" s="28">
+        <v>1</v>
+      </c>
+      <c r="P18" s="30">
         <v>0.48711364142635638</v>
       </c>
       <c r="Q18" s="5">
@@ -14735,33 +14934,33 @@
       <c r="S18" s="5">
         <v>-4.2583461903490001E-2</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="27">
         <v>-0.14760989343415931</v>
       </c>
-      <c r="U18" s="30">
+      <c r="U18" s="28">
         <v>-0.23493789356007458</v>
       </c>
-      <c r="V18" s="30">
+      <c r="V18" s="28">
         <v>-0.39318826593373002</v>
       </c>
-      <c r="W18" s="30">
+      <c r="W18" s="28">
         <v>-0.37947688952557662</v>
       </c>
-      <c r="X18" s="30">
+      <c r="X18" s="28">
         <v>-0.32438682433003219</v>
       </c>
-      <c r="Y18" s="32">
+      <c r="Y18" s="30">
         <v>-0.21664709178461342</v>
       </c>
       <c r="Z18" s="5">
         <v>0.10362596419666328</v>
       </c>
-      <c r="AA18" s="21">
+      <c r="AA18" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="18">
         <v>3</v>
       </c>
       <c r="B19" s="1">
@@ -14788,25 +14987,25 @@
       <c r="I19" s="5">
         <v>-0.14687611507109388</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="27">
         <v>0.33076189781928195</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="28">
         <v>0.26225569843282864</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="29">
         <v>0.32681488788479279</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="28">
         <v>0.26976350050712733</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="28">
         <v>0.34277718484949499</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="28">
         <v>0.48711364142635638</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="30">
         <v>0.99999999999999989</v>
       </c>
       <c r="Q19" s="5">
@@ -14818,33 +15017,33 @@
       <c r="S19" s="5">
         <v>-0.1594971629105523</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="27">
         <v>-0.11831038346218617</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="28">
         <v>-0.12847939377783699</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="28">
         <v>-0.27997827679861809</v>
       </c>
-      <c r="W19" s="30">
+      <c r="W19" s="28">
         <v>-0.1338774919170567</v>
       </c>
-      <c r="X19" s="30">
+      <c r="X19" s="28">
         <v>-0.24189149861542253</v>
       </c>
-      <c r="Y19" s="32">
+      <c r="Y19" s="30">
         <v>-0.25919202860050572</v>
       </c>
       <c r="Z19" s="5">
         <v>7.9083987564663671E-2</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA19" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>21</v>
       </c>
       <c r="B20" s="1">
@@ -14871,25 +15070,25 @@
       <c r="I20" s="5">
         <v>9.7986830326500282E-2</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="27">
         <v>0.15846160386148589</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="28">
         <v>0.15443790350888018</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="29">
         <v>0.24070917077214463</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="28">
         <v>8.324227726881181E-2</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="28">
         <v>0.15834434406291359</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="28">
         <v>0.33584987473394107</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="30">
         <v>0.20294337298344189</v>
       </c>
       <c r="Q20" s="5">
@@ -14901,33 +15100,33 @@
       <c r="S20" s="5">
         <v>0.13783988829047064</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="27">
         <v>-5.2594707940487033E-2</v>
       </c>
-      <c r="U20" s="30">
+      <c r="U20" s="28">
         <v>-0.15031007779924754</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="28">
         <v>-6.5824740378209526E-2</v>
       </c>
-      <c r="W20" s="30">
+      <c r="W20" s="28">
         <v>-0.12141072479661207</v>
       </c>
-      <c r="X20" s="30">
+      <c r="X20" s="28">
         <v>-7.242550145145131E-2</v>
       </c>
-      <c r="Y20" s="32">
+      <c r="Y20" s="30">
         <v>-0.15730394904327399</v>
       </c>
       <c r="Z20" s="5">
         <v>0.19282430566250197</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="AA20" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>22</v>
       </c>
       <c r="B21" s="1">
@@ -14954,25 +15153,25 @@
       <c r="I21" s="5">
         <v>-4.7076002883888621E-2</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="27">
         <v>0.15387787645682835</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="28">
         <v>8.314277466738125E-2</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <v>7.8059244842096046E-2</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="28">
         <v>8.9911919363836565E-2</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="28">
         <v>0.10679876830063741</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="28">
         <v>0.2709898728404172</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="30">
         <v>0.13166978362072321</v>
       </c>
       <c r="Q21" s="5">
@@ -14984,33 +15183,33 @@
       <c r="S21" s="5">
         <v>0.19073081464409156</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="27">
         <v>-5.0078246882594095E-2</v>
       </c>
-      <c r="U21" s="30">
+      <c r="U21" s="28">
         <v>-0.18884957840941466</v>
       </c>
-      <c r="V21" s="30">
+      <c r="V21" s="28">
         <v>-0.14991878200683179</v>
       </c>
-      <c r="W21" s="30">
+      <c r="W21" s="28">
         <v>-1.78639424256299E-2</v>
       </c>
-      <c r="X21" s="30">
+      <c r="X21" s="28">
         <v>-1.3476343302516819E-2</v>
       </c>
-      <c r="Y21" s="32">
+      <c r="Y21" s="30">
         <v>-3.108177046425066E-2</v>
       </c>
       <c r="Z21" s="5">
         <v>0.31851026312940606</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="18">
         <v>23</v>
       </c>
       <c r="B22" s="1">
@@ -15037,25 +15236,25 @@
       <c r="I22" s="5">
         <v>7.5642153572622869E-2</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="27">
         <v>-0.1307784670802481</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="28">
         <v>-0.20142321338486413</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="29">
         <v>-7.4398212107182879E-2</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="28">
         <v>-7.802108773361062E-2</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="28">
         <v>-0.22079406843313398</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="28">
         <v>-4.2583461903490001E-2</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="30">
         <v>-0.1594971629105523</v>
       </c>
       <c r="Q22" s="5">
@@ -15067,33 +15266,33 @@
       <c r="S22" s="5">
         <v>1</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="27">
         <v>8.3908361699164852E-2</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="28">
         <v>0.13395357421020626</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="28">
         <v>0.25242989360897039</v>
       </c>
-      <c r="W22" s="30">
+      <c r="W22" s="28">
         <v>3.7453500981410752E-2</v>
       </c>
-      <c r="X22" s="30">
+      <c r="X22" s="28">
         <v>0.2473522710101016</v>
       </c>
-      <c r="Y22" s="32">
+      <c r="Y22" s="30">
         <v>0.29786310577687403</v>
       </c>
       <c r="Z22" s="5">
         <v>0.16027705649014895</v>
       </c>
-      <c r="AA22" s="21">
+      <c r="AA22" s="19">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>10</v>
       </c>
       <c r="B23" s="1">
@@ -15120,25 +15319,25 @@
       <c r="I23" s="5">
         <v>-2.6504683508668209E-2</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="27">
         <v>-0.32840138427998289</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="28">
         <v>-0.21489400963115349</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="29">
         <v>-0.34379641539660116</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="28">
         <v>-0.54334449432543219</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="28">
         <v>-0.27402201796647907</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="28">
         <v>-0.14760989343415931</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="30">
         <v>-0.11831038346218617</v>
       </c>
       <c r="Q23" s="5">
@@ -15150,33 +15349,33 @@
       <c r="S23" s="5">
         <v>8.3908361699164852E-2</v>
       </c>
-      <c r="T23" s="29">
-        <v>1</v>
-      </c>
-      <c r="U23" s="30">
+      <c r="T23" s="27">
+        <v>1</v>
+      </c>
+      <c r="U23" s="28">
         <v>0.35211264681383642</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="28">
         <v>0.27446702495223202</v>
       </c>
-      <c r="W23" s="30">
+      <c r="W23" s="28">
         <v>0.31555364576029138</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="28">
         <v>0.32430558997518183</v>
       </c>
-      <c r="Y23" s="32">
+      <c r="Y23" s="30">
         <v>0.19306635240865708</v>
       </c>
       <c r="Z23" s="5">
         <v>4.2388778300499448E-3</v>
       </c>
-      <c r="AA23" s="21">
+      <c r="AA23" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>13</v>
       </c>
       <c r="B24" s="1">
@@ -15203,25 +15402,25 @@
       <c r="I24" s="5">
         <v>0.19374919871666663</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="27">
         <v>-0.35480375582832596</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="28">
         <v>-0.28682752740633899</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="29">
         <v>-0.34257846731855968</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="28">
         <v>-0.46843331784468556</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="28">
         <v>-0.40036582520398439</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="28">
         <v>-0.23493789356007458</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="30">
         <v>-0.12847939377783699</v>
       </c>
       <c r="Q24" s="5">
@@ -15233,33 +15432,33 @@
       <c r="S24" s="5">
         <v>0.13395357421020626</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="27">
         <v>0.35211264681383642</v>
       </c>
-      <c r="U24" s="30">
-        <v>1</v>
-      </c>
-      <c r="V24" s="30">
+      <c r="U24" s="28">
+        <v>1</v>
+      </c>
+      <c r="V24" s="28">
         <v>0.46045308844856297</v>
       </c>
-      <c r="W24" s="30">
+      <c r="W24" s="28">
         <v>0.31990406601702359</v>
       </c>
-      <c r="X24" s="30">
+      <c r="X24" s="28">
         <v>0.352014065592679</v>
       </c>
-      <c r="Y24" s="32">
+      <c r="Y24" s="30">
         <v>0.33675875123869548</v>
       </c>
       <c r="Z24" s="5">
         <v>8.2488347492546285E-2</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA24" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>11</v>
       </c>
       <c r="B25" s="1">
@@ -15286,25 +15485,25 @@
       <c r="I25" s="5">
         <v>0.22851600231347036</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="27">
         <v>-0.17698170509936423</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="28">
         <v>-0.22777696841973272</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="29">
         <v>-0.40202952232214195</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="28">
         <v>-0.36991009953442228</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="28">
         <v>-0.44309243533034198</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="28">
         <v>-0.39318826593373002</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="30">
         <v>-0.27997827679861809</v>
       </c>
       <c r="Q25" s="5">
@@ -15316,33 +15515,33 @@
       <c r="S25" s="5">
         <v>0.25242989360897039</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="27">
         <v>0.27446702495223202</v>
       </c>
-      <c r="U25" s="30">
+      <c r="U25" s="28">
         <v>0.46045308844856297</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="28">
         <v>0.99999999999999989</v>
       </c>
-      <c r="W25" s="30">
+      <c r="W25" s="28">
         <v>0.29113976233532995</v>
       </c>
-      <c r="X25" s="30">
+      <c r="X25" s="28">
         <v>0.47857455553513317</v>
       </c>
-      <c r="Y25" s="32">
+      <c r="Y25" s="30">
         <v>0.43574362924168752</v>
       </c>
       <c r="Z25" s="5">
         <v>0.1541661957274959</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AA25" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="18">
         <v>20</v>
       </c>
       <c r="B26" s="1">
@@ -15369,25 +15568,25 @@
       <c r="I26" s="5">
         <v>-3.7096984880948057E-2</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="27">
         <v>-0.25375583998261037</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="28">
         <v>-0.20130738682806631</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="29">
         <v>-0.33841391330336296</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="28">
         <v>-0.47313808691311676</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="28">
         <v>-0.34296076845262818</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="28">
         <v>-0.37947688952557662</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="30">
         <v>-0.1338774919170567</v>
       </c>
       <c r="Q26" s="5">
@@ -15399,33 +15598,33 @@
       <c r="S26" s="5">
         <v>3.7453500981410752E-2</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="27">
         <v>0.31555364576029138</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="28">
         <v>0.31990406601702359</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="28">
         <v>0.29113976233532995</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="28">
         <v>1.0000000000000002</v>
       </c>
-      <c r="X26" s="30">
+      <c r="X26" s="28">
         <v>0.41320758134531738</v>
       </c>
-      <c r="Y26" s="32">
+      <c r="Y26" s="30">
         <v>0.20987013413071887</v>
       </c>
       <c r="Z26" s="5">
         <v>3.042863896605023E-2</v>
       </c>
-      <c r="AA26" s="21">
+      <c r="AA26" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
       <c r="B27" s="1">
@@ -15452,25 +15651,25 @@
       <c r="I27" s="5">
         <v>3.3342494837538962E-2</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="27">
         <v>-0.3299041945864789</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="28">
         <v>-0.33786539992541892</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="29">
         <v>-0.501473079312028</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="28">
         <v>-0.50991653408828075</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="28">
         <v>-0.66417254053371766</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="28">
         <v>-0.32438682433003219</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="30">
         <v>-0.24189149861542253</v>
       </c>
       <c r="Q27" s="5">
@@ -15482,33 +15681,33 @@
       <c r="S27" s="5">
         <v>0.2473522710101016</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="27">
         <v>0.32430558997518183</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="28">
         <v>0.352014065592679</v>
       </c>
-      <c r="V27" s="30">
+      <c r="V27" s="28">
         <v>0.47857455553513317</v>
       </c>
-      <c r="W27" s="30">
+      <c r="W27" s="28">
         <v>0.41320758134531738</v>
       </c>
-      <c r="X27" s="30">
+      <c r="X27" s="28">
         <v>1.0000000000000002</v>
       </c>
-      <c r="Y27" s="32">
+      <c r="Y27" s="30">
         <v>0.39508540522783692</v>
       </c>
       <c r="Z27" s="5">
         <v>5.1932045663466458E-2</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA27" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="18">
         <v>9</v>
       </c>
       <c r="B28" s="1">
@@ -15535,25 +15734,25 @@
       <c r="I28" s="5">
         <v>-5.1146668675823605E-3</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="27">
         <v>-0.25079739520044575</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="28">
         <v>-0.39405789991326584</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="29">
         <v>-0.38087950786795938</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="28">
         <v>-0.27785148556861033</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="28">
         <v>-0.42761920743098453</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="28">
         <v>-0.21664709178461342</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="30">
         <v>-0.25919202860050572</v>
       </c>
       <c r="Q28" s="5">
@@ -15565,33 +15764,33 @@
       <c r="S28" s="5">
         <v>0.29786310577687403</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="27">
         <v>0.19306635240865708</v>
       </c>
-      <c r="U28" s="30">
+      <c r="U28" s="28">
         <v>0.33675875123869548</v>
       </c>
-      <c r="V28" s="30">
+      <c r="V28" s="28">
         <v>0.43574362924168752</v>
       </c>
-      <c r="W28" s="30">
+      <c r="W28" s="28">
         <v>0.20987013413071887</v>
       </c>
-      <c r="X28" s="30">
+      <c r="X28" s="28">
         <v>0.39508540522783692</v>
       </c>
-      <c r="Y28" s="32">
+      <c r="Y28" s="30">
         <v>1.0000000000000002</v>
       </c>
       <c r="Z28" s="5">
         <v>-0.11837006818957803</v>
       </c>
-      <c r="AA28" s="21">
+      <c r="AA28" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+      <c r="A29" s="18">
         <v>25</v>
       </c>
       <c r="B29" s="1">
@@ -15618,25 +15817,25 @@
       <c r="I29" s="5">
         <v>0.24856289411024246</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="27">
         <v>7.856156257298888E-2</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="28">
         <v>0.16127335014570013</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="29">
         <v>4.7374962626922056E-2</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="28">
         <v>-3.2756471647741835E-2</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="28">
         <v>-1.8726352412337069E-2</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="28">
         <v>0.10362596419666328</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="30">
         <v>7.9083987564663671E-2</v>
       </c>
       <c r="Q29" s="5">
@@ -15648,122 +15847,122 @@
       <c r="S29" s="5">
         <v>0.16027705649014895</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="27">
         <v>4.2388778300499448E-3</v>
       </c>
-      <c r="U29" s="30">
+      <c r="U29" s="28">
         <v>8.2488347492546285E-2</v>
       </c>
-      <c r="V29" s="30">
+      <c r="V29" s="28">
         <v>0.1541661957274959</v>
       </c>
-      <c r="W29" s="30">
+      <c r="W29" s="28">
         <v>3.042863896605023E-2</v>
       </c>
-      <c r="X29" s="30">
+      <c r="X29" s="28">
         <v>5.1932045663466458E-2</v>
       </c>
-      <c r="Y29" s="32">
+      <c r="Y29" s="30">
         <v>-0.11837006818957803</v>
       </c>
       <c r="Z29" s="5">
         <v>1</v>
       </c>
-      <c r="AA29" s="21">
+      <c r="AA29" s="19">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
-        <v>1</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17">
         <v>4</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <v>5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>8</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <v>12</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <v>15</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="17">
         <v>16</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="17">
         <v>17</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="24">
         <v>6</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="25">
         <v>7</v>
       </c>
-      <c r="L30" s="27">
-        <v>2</v>
-      </c>
-      <c r="M30" s="27">
+      <c r="L30" s="25">
+        <v>2</v>
+      </c>
+      <c r="M30" s="25">
         <v>18</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="25">
         <v>19</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="25">
         <v>14</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="26">
         <v>3</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="17">
         <v>21</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="17">
         <v>22</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="17">
         <v>23</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="24">
         <v>10</v>
       </c>
-      <c r="U30" s="27">
+      <c r="U30" s="25">
         <v>13</v>
       </c>
-      <c r="V30" s="27">
+      <c r="V30" s="25">
         <v>11</v>
       </c>
-      <c r="W30" s="27">
+      <c r="W30" s="25">
         <v>20</v>
       </c>
-      <c r="X30" s="27">
+      <c r="X30" s="25">
         <v>24</v>
       </c>
-      <c r="Y30" s="28">
+      <c r="Y30" s="26">
         <v>9</v>
       </c>
-      <c r="Z30" s="19">
+      <c r="Z30" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="35"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="35"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15783,6 +15982,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="26835" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="26835" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>Положительная корреляция — на вопросы отвечают чаще одинаково. Отрицательная — чаще дают противоположные ответы. 0 — ответы никак не связаны. 1 — ответы в точности одинаковые</t>
   </si>
@@ -238,6 +238,363 @@
   </si>
   <si>
     <t>Номер вопроса</t>
+  </si>
+  <si>
+    <t>Александрова-Зорина Елизавета Борисовна</t>
+  </si>
+  <si>
+    <t>Аншаков Михаил Геннадьевич</t>
+  </si>
+  <si>
+    <t>Ашурков Владимир Львович</t>
+  </si>
+  <si>
+    <t>Бадыкова Фиалка Ахмадеевна</t>
+  </si>
+  <si>
+    <t>Бакиров Игорь Вакильевич</t>
+  </si>
+  <si>
+    <t>Баласанов Андрей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Барабаш Кирилл Владимирович</t>
+  </si>
+  <si>
+    <t>Баронова Мария Николаевна</t>
+  </si>
+  <si>
+    <t>Беззуб Алексей Юрьевич</t>
+  </si>
+  <si>
+    <t>Безруких Олег Анатольевич</t>
+  </si>
+  <si>
+    <t>Билунов Денис Борисович</t>
+  </si>
+  <si>
+    <t>Блиндул Алексей Валерьевич</t>
+  </si>
+  <si>
+    <t>Брусиловский Максим Анатольевич</t>
+  </si>
+  <si>
+    <t>Будникова Софья Владимировна</t>
+  </si>
+  <si>
+    <t>Быстров Андрей Сергеевич</t>
+  </si>
+  <si>
+    <t>Васильева Елена Борисовна</t>
+  </si>
+  <si>
+    <t>Виноградов Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>Винокуров Александр Иванович</t>
+  </si>
+  <si>
+    <t>Витухновская Алина Александровна</t>
+  </si>
+  <si>
+    <t>Власов Сергей Игоревич</t>
+  </si>
+  <si>
+    <t>Гаврилов Андрей Игоревич</t>
+  </si>
+  <si>
+    <t>Газарян Сурен Владимирович</t>
+  </si>
+  <si>
+    <t>Галямина Юлия Евгеньевна</t>
+  </si>
+  <si>
+    <t>Гарначук Владимир Федорович</t>
+  </si>
+  <si>
+    <t>Гельфанд Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Глускин Владимир Александрович</t>
+  </si>
+  <si>
+    <t>Головин Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Гонгальский Максим Брониславович</t>
+  </si>
+  <si>
+    <t>Горник Александр Львович</t>
+  </si>
+  <si>
+    <t>Готсданкер Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Гребнева Ирина Георгиевна</t>
+  </si>
+  <si>
+    <t>Давыденко Денис Вячеславович</t>
+  </si>
+  <si>
+    <t>Давыдов Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Дегтярь Иван Васильевич</t>
+  </si>
+  <si>
+    <t>Демидов Михаил Александрович</t>
+  </si>
+  <si>
+    <t>Дергачев Вадим Александрович</t>
+  </si>
+  <si>
+    <t>Дзядко Филипп Викторович</t>
+  </si>
+  <si>
+    <t>Доможиров Евгений Валерьевич</t>
+  </si>
+  <si>
+    <t>Езеев Федор Андреевич</t>
+  </si>
+  <si>
+    <t>Зорин Константин Игоревич</t>
+  </si>
+  <si>
+    <t>Иванов Андрей Геннадьевич</t>
+  </si>
+  <si>
+    <t>Илларионов Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Кара-Мурза Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Каржаева Неонила Васильевна</t>
+  </si>
+  <si>
+    <t>Каспаров Гарри Кимович</t>
+  </si>
+  <si>
+    <t>Кац Максим Евгеньевич</t>
+  </si>
+  <si>
+    <t>Кашин Олег Владимирович</t>
+  </si>
+  <si>
+    <t>Козырев Олег Вилисович</t>
+  </si>
+  <si>
+    <t>Колчинцев Вадим Валерьевич</t>
+  </si>
+  <si>
+    <t>Крашенинников Федор Геннадиевич</t>
+  </si>
+  <si>
+    <t>Крылов Олег Анатольевич</t>
+  </si>
+  <si>
+    <t>Крюков Василий Анатольевич</t>
+  </si>
+  <si>
+    <t>Кузин Евгений Андреевич</t>
+  </si>
+  <si>
+    <t>Кузнецов Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Курамшин Владимир Вячеславович</t>
+  </si>
+  <si>
+    <t>Лавров Андрей Валерьевич</t>
+  </si>
+  <si>
+    <t>Лазуренко (Северский) Артем Сергеевич</t>
+  </si>
+  <si>
+    <t>Левченко Екатерина Валентиновна</t>
+  </si>
+  <si>
+    <t>Левшиц Николай Дмитриевич</t>
+  </si>
+  <si>
+    <t>Литвинов Георгий Александрович (Артём Драгунов)</t>
+  </si>
+  <si>
+    <t>Магкоева Белла (Изабель) Казбековна</t>
+  </si>
+  <si>
+    <t>Малышев Владимир Эдуардович</t>
+  </si>
+  <si>
+    <t>Мальцева Анастасия Анатольевна (Анастасия Хрустальная)</t>
+  </si>
+  <si>
+    <t>Матвеев Михаил Николаевич</t>
+  </si>
+  <si>
+    <t>Мирзоев Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Митюшкина Надежда Львовна</t>
+  </si>
+  <si>
+    <t>Мокшанов Александр Александрович</t>
+  </si>
+  <si>
+    <t>Мухин Юрий Игнатьевич</t>
+  </si>
+  <si>
+    <t>Некрасов Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Образцова Алиса Сергеевна</t>
+  </si>
+  <si>
+    <t>Овдиенко Игорь Геннадьевич</t>
+  </si>
+  <si>
+    <t>Ольшанский Леонид Дмитриевич</t>
+  </si>
+  <si>
+    <t>Осенин Владимир Олегович</t>
+  </si>
+  <si>
+    <t>Отставных Валерий Владимирович</t>
+  </si>
+  <si>
+    <t>Пархоменко Сергей Борисович</t>
+  </si>
+  <si>
+    <t>Первушин Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Петречук Лариса Леонидовна</t>
+  </si>
+  <si>
+    <t>Пионтковский Андрей Андреевич</t>
+  </si>
+  <si>
+    <t>Поляков Анатолий Викторович</t>
+  </si>
+  <si>
+    <t>Пономарев Илья Владимирович</t>
+  </si>
+  <si>
+    <t>Поткин (Басманов) Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Пряников Павел Николаевич</t>
+  </si>
+  <si>
+    <t>Ренёв Денис Владимирович</t>
+  </si>
+  <si>
+    <t>Русакова Елена Леонидовна</t>
+  </si>
+  <si>
+    <t>Савостин Михаил Олегович</t>
+  </si>
+  <si>
+    <t>Сайдашев Радик Ромович</t>
+  </si>
+  <si>
+    <t>Семенов Владимир Матвеевич</t>
+  </si>
+  <si>
+    <t>Семенов Игорь Вячеславович</t>
+  </si>
+  <si>
+    <t>Скалаух Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Смирнов Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>Спорыхина Ульяна Викторовна</t>
+  </si>
+  <si>
+    <t>Стефанов Борис Александрович</t>
+  </si>
+  <si>
+    <t>Сухарева Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Терегулов Артур Ринатович</t>
+  </si>
+  <si>
+    <t>Удальцова Анастасия Олеговна</t>
+  </si>
+  <si>
+    <t>Чупров Алексей Геннадьевич</t>
+  </si>
+  <si>
+    <t>Шатов Станислав Николаевич</t>
+  </si>
+  <si>
+    <t>Шац Михаил Григорьевич</t>
+  </si>
+  <si>
+    <t>Шнейдер Михаил Яковлевич</t>
+  </si>
+  <si>
+    <t>Щербаков Александр Вениаминович</t>
+  </si>
+  <si>
+    <t>Эсауленко Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>Янкаускас Константин Стасисович</t>
+  </si>
+  <si>
+    <t>Яшин (Ясин) Игорь Геннадьевич</t>
+  </si>
+  <si>
+    <t>Аитова Екатерина Петровна</t>
+  </si>
+  <si>
+    <t>Волкова Александра Ивановна (Женя Отто)</t>
+  </si>
+  <si>
+    <t>Николаев Александр Александрович</t>
+  </si>
+  <si>
+    <t>Печенев Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Санников Максим Андреевич</t>
+  </si>
+  <si>
+    <t>Шалимов Роман Николаевич</t>
+  </si>
+  <si>
+    <t>Давидис Сергей Константинович</t>
+  </si>
+  <si>
+    <t>Долгих Антон Витальевич</t>
+  </si>
+  <si>
+    <t>Залесский Александр Валерьевич</t>
+  </si>
+  <si>
+    <t>Пивоваров Андрей Сергеевич</t>
+  </si>
+  <si>
+    <t>Тютрин Иван Иванович</t>
+  </si>
+  <si>
+    <t>Шальнев Андрей Сергеевич</t>
+  </si>
+  <si>
+    <t>Артёмов Игорь Владимирович</t>
+  </si>
+  <si>
+    <t>Демушкин Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>Дровецкий Василий Валерьевич</t>
+  </si>
+  <si>
+    <t>Крылов Константин Анатольевич</t>
   </si>
 </sst>
 </file>
@@ -795,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA172"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:XFD132"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162:G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +1255,9 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -975,6 +1335,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1052,6 +1415,9 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -1129,6 +1495,9 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1206,6 +1575,9 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1283,6 +1655,9 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1360,6 +1735,9 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1437,6 +1815,9 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -1514,6 +1895,9 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -1591,6 +1975,9 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1668,6 +2055,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -1745,6 +2135,9 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -1822,6 +2215,9 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="1">
         <v>-2</v>
       </c>
@@ -1899,6 +2295,9 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -1976,6 +2375,9 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -2052,7 +2454,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -2129,7 +2534,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B18" s="1">
         <v>-2</v>
       </c>
@@ -2206,7 +2614,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -2283,7 +2694,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
@@ -2360,7 +2774,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B21" s="1">
         <v>-1</v>
       </c>
@@ -2437,7 +2854,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="1">
         <v>-2</v>
       </c>
@@ -2514,7 +2934,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -2591,7 +3014,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -2668,7 +3094,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
@@ -2745,7 +3174,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -2822,7 +3254,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B27" s="1">
         <v>-1</v>
       </c>
@@ -2899,7 +3334,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -2976,7 +3414,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
@@ -3053,7 +3494,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B30" s="1">
         <v>-1</v>
       </c>
@@ -3130,7 +3574,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
@@ -3207,7 +3654,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -3284,7 +3734,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B33" s="1">
         <v>-1</v>
       </c>
@@ -3361,7 +3814,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
@@ -3438,7 +3894,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
@@ -3515,7 +3974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B36" s="1">
         <v>-2</v>
       </c>
@@ -3592,7 +4054,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
@@ -3669,7 +4134,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -3746,7 +4214,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
@@ -3823,7 +4294,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -3900,7 +4374,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B41" s="1">
         <v>-1</v>
       </c>
@@ -3977,7 +4454,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B42" s="1">
         <v>-1</v>
       </c>
@@ -4054,7 +4534,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
@@ -4131,7 +4614,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
@@ -4208,7 +4694,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -4285,7 +4774,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
@@ -4362,7 +4854,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
@@ -4439,7 +4934,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -4516,7 +5014,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
@@ -4593,7 +5094,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B50" s="1">
         <v>-2</v>
       </c>
@@ -4670,7 +5174,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
@@ -4747,7 +5254,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B52" s="1">
         <v>-1</v>
       </c>
@@ -4824,7 +5334,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
@@ -4901,7 +5414,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
@@ -4978,7 +5494,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B55" s="1">
         <v>-1</v>
       </c>
@@ -5055,7 +5574,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B56" s="1">
         <v>-1</v>
       </c>
@@ -5132,7 +5654,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
@@ -5209,7 +5734,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B58" s="1">
         <v>2</v>
       </c>
@@ -5286,7 +5814,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B59" s="1">
         <v>2</v>
       </c>
@@ -5363,7 +5894,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
@@ -5440,7 +5974,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
@@ -5517,7 +6054,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B62" s="1">
         <v>-2</v>
       </c>
@@ -5594,7 +6134,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B63" s="1">
         <v>0</v>
       </c>
@@ -5671,7 +6214,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B64" s="1">
         <v>-2</v>
       </c>
@@ -5748,7 +6294,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B65" s="1">
         <v>-1</v>
       </c>
@@ -5825,7 +6374,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B66" s="1">
         <v>2</v>
       </c>
@@ -5902,7 +6454,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
@@ -5979,7 +6534,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
@@ -6056,7 +6614,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B69" s="1">
         <v>2</v>
       </c>
@@ -6133,7 +6694,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -6210,7 +6774,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B71" s="1">
         <v>2</v>
       </c>
@@ -6287,7 +6854,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B72" s="1">
         <v>2</v>
       </c>
@@ -6364,7 +6934,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B73" s="1">
         <v>2</v>
       </c>
@@ -6441,7 +7014,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B74" s="1">
         <v>2</v>
       </c>
@@ -6518,7 +7094,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B75" s="1">
         <v>0</v>
       </c>
@@ -6595,7 +7174,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B76" s="1">
         <v>-1</v>
       </c>
@@ -6672,7 +7254,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B77" s="1">
         <v>2</v>
       </c>
@@ -6749,7 +7334,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -6826,7 +7414,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B79" s="1">
         <v>2</v>
       </c>
@@ -6903,7 +7494,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B80" s="1">
         <v>2</v>
       </c>
@@ -6980,7 +7574,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -7057,7 +7654,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B82" s="1">
         <v>0</v>
       </c>
@@ -7134,7 +7734,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B83" s="1">
         <v>2</v>
       </c>
@@ -7211,7 +7814,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B84" s="1">
         <v>-1</v>
       </c>
@@ -7288,7 +7894,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B85" s="1">
         <v>2</v>
       </c>
@@ -7365,7 +7974,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B86" s="1">
         <v>2</v>
       </c>
@@ -7442,7 +8054,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B87" s="1">
         <v>2</v>
       </c>
@@ -7519,7 +8134,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -7596,7 +8214,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
@@ -7673,7 +8294,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B90" s="1">
         <v>2</v>
       </c>
@@ -7750,7 +8374,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B91" s="1">
         <v>2</v>
       </c>
@@ -7827,7 +8454,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
@@ -7904,7 +8534,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
@@ -7981,7 +8614,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B94" s="1">
         <v>1</v>
       </c>
@@ -8058,7 +8694,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B95" s="1">
         <v>0</v>
       </c>
@@ -8135,7 +8774,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
@@ -8212,7 +8854,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
@@ -8289,7 +8934,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B98" s="1">
         <v>-1</v>
       </c>
@@ -8366,7 +9014,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B99" s="1">
         <v>-1</v>
       </c>
@@ -8443,7 +9094,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B100" s="1">
         <v>1</v>
       </c>
@@ -8520,7 +9174,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B101" s="1">
         <v>2</v>
       </c>
@@ -8597,7 +9254,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
@@ -8674,7 +9334,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B103" s="1">
         <v>1</v>
       </c>
@@ -8751,7 +9414,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B104" s="1">
         <v>1</v>
       </c>
@@ -8828,7 +9494,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B105" s="1">
         <v>1</v>
       </c>
@@ -8905,7 +9574,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B106" s="1">
         <v>1</v>
       </c>
@@ -8982,7 +9654,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B107" s="1">
         <v>-1</v>
       </c>
@@ -9059,7 +9734,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B108" s="1">
         <v>1</v>
       </c>
@@ -9136,7 +9814,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B109" s="1">
         <v>1</v>
       </c>
@@ -9213,7 +9894,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B110" s="1">
         <v>-1</v>
       </c>
@@ -9290,7 +9974,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B111" s="1">
         <v>1</v>
       </c>
@@ -9367,7 +10054,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -9445,6 +10135,9 @@
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B113" s="1">
         <v>1</v>
       </c>
@@ -9522,6 +10215,9 @@
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B114" s="1">
         <v>1</v>
       </c>
@@ -9599,6 +10295,9 @@
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
@@ -9676,6 +10375,9 @@
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B116" s="1">
         <v>2</v>
       </c>
@@ -9753,6 +10455,9 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B117" s="1">
         <v>1</v>
       </c>
@@ -9830,6 +10535,9 @@
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B118" s="1">
         <v>-1</v>
       </c>
@@ -9907,6 +10615,9 @@
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -9984,6 +10695,9 @@
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B120" s="1">
         <v>0</v>
       </c>
@@ -13462,57 +14176,33 @@
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="4">
-        <v>2</v>
-      </c>
-      <c r="C163" s="4">
-        <v>2</v>
-      </c>
-      <c r="D163" s="4">
-        <v>2</v>
-      </c>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="4">
-        <v>6</v>
-      </c>
-      <c r="C164" s="4">
-        <v>18</v>
-      </c>
-      <c r="D164" s="4">
-        <v>-11</v>
-      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="4">
-        <v>7</v>
-      </c>
-      <c r="C165" s="4">
-        <v>19</v>
-      </c>
-      <c r="D165" s="4">
-        <v>-24</v>
-      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
-      <c r="C166" s="4">
-        <v>-24</v>
-      </c>
+      <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
-      <c r="C167" s="4">
-        <v>-11</v>
-      </c>
+      <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
-      <c r="C168" s="4">
-        <v>-10</v>
-      </c>
+      <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
@@ -13622,8 +14312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>Положительная корреляция — на вопросы отвечают чаще одинаково. Отрицательная — чаще дают противоположные ответы. 0 — ответы никак не связаны. 1 — ответы в точности одинаковые</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>Крылов Константин Анатольевич</t>
+  </si>
+  <si>
+    <t>2367_14_18_19</t>
+  </si>
+  <si>
+    <t>9_10_11_13_20_24</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA172"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162:G175"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC120" sqref="AC2:AC120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,10 +1177,12 @@
     <col min="23" max="24" width="10.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="1"/>
     <col min="26" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="27" width="24.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1253,8 +1261,14 @@
       <c r="Z1" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1333,8 +1347,20 @@
       <c r="Z2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="1">
+        <f>C2+D2+G2+H2+O2+S2+T2</f>
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>J2+K2+L2+N2+U2+Y2</f>
+        <v>-11</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>(AA2-AB2)/13</f>
+        <v>1.8461538461538463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1439,20 @@
       <c r="Z3" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA66" si="0">C3+D3+G3+H3+O3+S3+T3</f>
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB66" si="1">J3+K3+L3+N3+U3+Y3</f>
+        <v>4</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" ref="AC3:AC66" si="2">(AA3-AB3)/13</f>
+        <v>-0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1493,8 +1531,20 @@
       <c r="Z4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="1">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AC4" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,8 +1623,20 @@
       <c r="Z5" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,8 +1715,20 @@
       <c r="Z6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1733,8 +1807,20 @@
       <c r="Z7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="1">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1813,8 +1899,20 @@
       <c r="Z8" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7692307692307692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1893,8 +1991,20 @@
       <c r="Z9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1973,8 +2083,20 @@
       <c r="Z10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="1">
+        <f>C10+D10+G10+H10+O10+S10+T10</f>
+        <v>-2</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>J10+K10+L10+N10+U10+Y10</f>
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2053,8 +2175,20 @@
       <c r="Z11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2133,8 +2267,20 @@
       <c r="Z12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2213,8 +2359,20 @@
       <c r="Z13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2293,8 +2451,20 @@
       <c r="Z14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2373,8 +2543,20 @@
       <c r="Z15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2453,8 +2635,20 @@
       <c r="Z16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2533,8 +2727,20 @@
       <c r="Z17" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2819,20 @@
       <c r="Z18" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2693,8 +2911,20 @@
       <c r="Z19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -2773,8 +3003,20 @@
       <c r="Z20" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -2853,8 +3095,20 @@
       <c r="Z21" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2933,8 +3187,20 @@
       <c r="Z22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3013,8 +3279,20 @@
       <c r="Z23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23" s="1">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -3093,8 +3371,20 @@
       <c r="Z24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.1538461538461537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -3173,8 +3463,20 @@
       <c r="Z25" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25" s="1">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3253,8 +3555,20 @@
       <c r="Z26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4615384615384615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -3333,8 +3647,20 @@
       <c r="Z27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -3413,8 +3739,20 @@
       <c r="Z28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="1">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -3493,8 +3831,20 @@
       <c r="Z29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -3573,8 +3923,20 @@
       <c r="Z30" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -3653,8 +4015,20 @@
       <c r="Z31" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -3733,8 +4107,20 @@
       <c r="Z32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="1">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC32" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -3813,8 +4199,20 @@
       <c r="Z33" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AC33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -3893,8 +4291,20 @@
       <c r="Z34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -3973,8 +4383,20 @@
       <c r="Z35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -4053,8 +4475,20 @@
       <c r="Z36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -4133,8 +4567,20 @@
       <c r="Z37" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="1">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -4213,8 +4659,20 @@
       <c r="Z38" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="1">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -4293,8 +4751,20 @@
       <c r="Z39" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -4373,8 +4843,20 @@
       <c r="Z40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -4453,8 +4935,20 @@
       <c r="Z41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="AC41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -4533,8 +5027,20 @@
       <c r="Z42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -4613,8 +5119,20 @@
       <c r="Z43" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -4693,8 +5211,20 @@
       <c r="Z44" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AC44" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -4773,8 +5303,20 @@
       <c r="Z45" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA45" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="AC45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -4853,8 +5395,20 @@
       <c r="Z46" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="AB46" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC46" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -4933,8 +5487,20 @@
       <c r="Z47" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AC47" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5013,8 +5579,20 @@
       <c r="Z48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="1">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="AB48" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AC48" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -5093,8 +5671,20 @@
       <c r="Z49" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC49" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -5173,8 +5763,20 @@
       <c r="Z50" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB50" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="AC50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -5253,8 +5855,20 @@
       <c r="Z51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC51" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -5333,8 +5947,20 @@
       <c r="Z52" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52" s="1">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="AB52" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC52" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -5413,8 +6039,20 @@
       <c r="Z53" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA53" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -5493,8 +6131,20 @@
       <c r="Z54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="1">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="AB54" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC54" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -5573,8 +6223,20 @@
       <c r="Z55" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA55" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB55" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -5653,8 +6315,20 @@
       <c r="Z56" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA56" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -5733,8 +6407,20 @@
       <c r="Z57" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB57" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AC57" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -5813,8 +6499,20 @@
       <c r="Z58" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58" s="1">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="AB58" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AC58" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -5893,8 +6591,20 @@
       <c r="Z59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC59" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -5973,8 +6683,20 @@
       <c r="Z60" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA60" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -6053,8 +6775,20 @@
       <c r="Z61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB61" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC61" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -6133,8 +6867,20 @@
       <c r="Z62" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="AB62" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="AC62" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,8 +6959,20 @@
       <c r="Z63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA63" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="AB63" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC63" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -6293,8 +7051,20 @@
       <c r="Z64" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA64" s="1">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="AB64" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="AC64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +7143,20 @@
       <c r="Z65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AB65" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="AC65" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -6453,8 +7235,20 @@
       <c r="Z66" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AB66" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC66" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -6533,8 +7327,20 @@
       <c r="Z67" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="1">
+        <f t="shared" ref="AA67:AA120" si="3">C67+D67+G67+H67+O67+S67+T67</f>
+        <v>-5</v>
+      </c>
+      <c r="AB67" s="1">
+        <f t="shared" ref="AB67:AB120" si="4">J67+K67+L67+N67+U67+Y67</f>
+        <v>5</v>
+      </c>
+      <c r="AC67" s="1">
+        <f t="shared" ref="AC67:AC120" si="5">(AA67-AB67)/13</f>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -6613,8 +7419,20 @@
       <c r="Z68" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA68" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AC68" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -6693,8 +7511,20 @@
       <c r="Z69" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA69" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AB69" s="1">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="AC69" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -6773,8 +7603,20 @@
       <c r="Z70" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA70" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="AB70" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AC70" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -6853,8 +7695,20 @@
       <c r="Z71" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA71" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB71" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AC71" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -6933,8 +7787,20 @@
       <c r="Z72" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AB72" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC72" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -7013,8 +7879,20 @@
       <c r="Z73" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AB73" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC73" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1538461538461537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -7093,8 +7971,20 @@
       <c r="Z74" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA74" s="1">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+      <c r="AB74" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AC74" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -7173,8 +8063,20 @@
       <c r="Z75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA75" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB75" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC75" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -7253,8 +8155,20 @@
       <c r="Z76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA76" s="1">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="AB76" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AC76" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.6153846153846154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -7333,8 +8247,20 @@
       <c r="Z77" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA77" s="1">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="AB77" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AC77" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -7413,8 +8339,20 @@
       <c r="Z78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA78" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AB78" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC78" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -7493,8 +8431,20 @@
       <c r="Z79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA79" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB79" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AC79" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -7573,8 +8523,20 @@
       <c r="Z80" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA80" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AB80" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC80" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4615384615384615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -7653,8 +8615,20 @@
       <c r="Z81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA81" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB81" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="AC81" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -7733,8 +8707,20 @@
       <c r="Z82" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA82" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AB82" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="AC82" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -7813,8 +8799,20 @@
       <c r="Z83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA83" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AB83" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="AC83" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -7893,8 +8891,20 @@
       <c r="Z84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA84" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB84" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AC84" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -7973,8 +8983,20 @@
       <c r="Z85" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA85" s="1">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="AB85" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC85" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -8053,8 +9075,20 @@
       <c r="Z86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA86" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB86" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC86" s="1">
+        <f t="shared" si="5"/>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -8133,8 +9167,20 @@
       <c r="Z87" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA87" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AB87" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AC87" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -8213,8 +9259,20 @@
       <c r="Z88" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA88" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AB88" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="AC88" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -8293,8 +9351,20 @@
       <c r="Z89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA89" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB89" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AC89" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -8373,8 +9443,20 @@
       <c r="Z90" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA90" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AC90" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -8453,8 +9535,20 @@
       <c r="Z91" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA91" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC91" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -8533,8 +9627,20 @@
       <c r="Z92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA92" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AB92" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="AC92" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -8613,8 +9719,20 @@
       <c r="Z93" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA93" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB93" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC93" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
@@ -8693,8 +9811,20 @@
       <c r="Z94" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA94" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AB94" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AC94" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -8773,8 +9903,20 @@
       <c r="Z95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA95" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AB95" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AC95" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>104</v>
       </c>
@@ -8853,8 +9995,20 @@
       <c r="Z96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA96" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB96" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="AC96" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -8933,8 +10087,20 @@
       <c r="Z97" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA97" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="AB97" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AC97" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -9013,8 +10179,20 @@
       <c r="Z98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA98" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AB98" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC98" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -9093,8 +10271,20 @@
       <c r="Z99" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA99" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB99" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC99" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -9173,8 +10363,20 @@
       <c r="Z100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA100" s="1">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="AB100" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AC100" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -9253,8 +10455,20 @@
       <c r="Z101" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA101" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC101" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -9333,8 +10547,20 @@
       <c r="Z102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA102" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AB102" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC102" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -9413,8 +10639,20 @@
       <c r="Z103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA103" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AB103" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC103" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -9493,8 +10731,20 @@
       <c r="Z104" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA104" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB104" s="1">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="AC104" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
@@ -9573,8 +10823,20 @@
       <c r="Z105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA105" s="1">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
@@ -9653,8 +10915,20 @@
       <c r="Z106" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA106" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB106" s="1">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="AC106" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -9733,8 +11007,20 @@
       <c r="Z107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA107" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AB107" s="1">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="AC107" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -9813,8 +11099,20 @@
       <c r="Z108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA108" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AB108" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC108" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -9893,8 +11191,20 @@
       <c r="Z109" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA109" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC109" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
@@ -9973,8 +11283,20 @@
       <c r="Z110" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA110" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AB110" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="AC110" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
@@ -10053,8 +11375,20 @@
       <c r="Z111" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA111" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="AB111" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AC111" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -10133,8 +11467,20 @@
       <c r="Z112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA112" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB112" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AC112" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -10213,8 +11559,20 @@
       <c r="Z113" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA113" s="1">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+      <c r="AB113" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AC113" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
@@ -10293,8 +11651,20 @@
       <c r="Z114" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA114" s="1">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="AB114" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AC114" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
@@ -10373,8 +11743,20 @@
       <c r="Z115" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA115" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AB115" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AC115" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
@@ -10453,8 +11835,20 @@
       <c r="Z116" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA116" s="1">
+        <f t="shared" si="3"/>
+        <v>-13</v>
+      </c>
+      <c r="AB116" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AC116" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
@@ -10533,8 +11927,20 @@
       <c r="Z117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA117" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AB117" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC117" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
@@ -10613,8 +12019,20 @@
       <c r="Z118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA118" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AB118" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AC118" s="1">
+        <f t="shared" si="5"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
@@ -10693,8 +12111,20 @@
       <c r="Z119" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA119" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AB119" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC119" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
@@ -10773,8 +12203,20 @@
       <c r="Z120" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA120" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AB120" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC120" s="1">
+        <f t="shared" si="5"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>6</v>
       </c>
@@ -10783,103 +12225,103 @@
         <v>110</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" ref="C122:Z122" si="0">SUM(C2:C120)</f>
+        <f t="shared" ref="C122:Z122" si="6">SUM(C2:C120)</f>
         <v>-51</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-19</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="J122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="N122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-42</v>
       </c>
       <c r="O122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-99</v>
       </c>
       <c r="P122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="Q122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="R122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-121</v>
       </c>
       <c r="S122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="T122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-111</v>
       </c>
       <c r="U122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-187</v>
       </c>
       <c r="W122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="X122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="Y122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="Z122" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>5</v>
       </c>
@@ -10888,103 +12330,103 @@
         <v>172</v>
       </c>
       <c r="C123" s="5">
-        <f t="shared" ref="C123:Z123" si="1">SUMIF(C2:C120,"&gt;=0")-SUMIF(C2:C120,"&lt;0")</f>
+        <f t="shared" ref="C123:Z123" si="7">SUMIF(C2:C120,"&gt;=0")-SUMIF(C2:C120,"&lt;0")</f>
         <v>155</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>169</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
       <c r="I123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="J123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="L123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
       <c r="N123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="O123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
       <c r="P123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>181</v>
       </c>
       <c r="Q123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="R123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="S123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="T123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
       <c r="U123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="V123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="W123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
       <c r="X123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="Y123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="Z123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>8</v>
       </c>
@@ -10993,208 +12435,208 @@
         <v>62</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" ref="C124:Z124" si="2">C123-ABS(C122)</f>
+        <f t="shared" ref="C124:Z124" si="8">C123-ABS(C122)</f>
         <v>104</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="H124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="I124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="J124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="K124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="L124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="N124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="O124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="P124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="Q124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="S124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="T124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="U124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="V124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="W124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="X124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="Y124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="Z124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B125" s="1">
-        <f t="shared" ref="B125" si="3">AVERAGEA(B2:B120)</f>
+        <f t="shared" ref="B125" si="9">AVERAGEA(B2:B120)</f>
         <v>0.92436974789915971</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" ref="C125:Z125" si="4">AVERAGEA(C2:C120)</f>
+        <f t="shared" ref="C125:Z125" si="10">AVERAGEA(C2:C120)</f>
         <v>-0.42857142857142855</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.59663865546218486</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.37815126050420167</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.15966386554621848</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1596638655462186</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.50420168067226889</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="J125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.0504201680672269</v>
       </c>
       <c r="K125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.4033613445378148E-3</v>
       </c>
       <c r="L125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.99159663865546221</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.27731092436974791</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.35294117647058826</v>
       </c>
       <c r="O125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.83193277310924374</v>
       </c>
       <c r="P125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.44537815126050423</v>
       </c>
       <c r="Q125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.6050420168067228</v>
       </c>
       <c r="R125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.0168067226890756</v>
       </c>
       <c r="S125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.4033613445378158E-2</v>
       </c>
       <c r="T125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.9327731092436975</v>
       </c>
       <c r="U125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.50420168067226889</v>
       </c>
       <c r="V125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.5714285714285714</v>
       </c>
       <c r="W125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-8.4033613445378158E-2</v>
       </c>
       <c r="X125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.84033613445378152</v>
       </c>
       <c r="Y125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="Z125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
         <v>3</v>
       </c>
@@ -11203,103 +12645,103 @@
         <v>1.6128756587380715</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" ref="C126:Z126" si="5">_xlfn.VAR.S(C2:C120)</f>
+        <f t="shared" ref="C126:Z126" si="11">_xlfn.VAR.S(C2:C120)</f>
         <v>1.8232445520581113</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.9884631818829228</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.7964677396382283</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.7793761572425582</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.4234439538527275</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.0317618572852871</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.70460048426150146</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.8448938897592935</v>
       </c>
       <c r="K126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.1100982765987752</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.7372169206665717</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.5410910126762571</v>
       </c>
       <c r="N126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.0947158524426719</v>
       </c>
       <c r="O126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.1579547073066516</v>
       </c>
       <c r="P126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.4863979490101125</v>
       </c>
       <c r="Q126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.59692351516877928</v>
       </c>
       <c r="R126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2031049708018802</v>
       </c>
       <c r="S126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.2301666429283578</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.9784930921521151</v>
       </c>
       <c r="U126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5571855860988462</v>
       </c>
       <c r="V126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.87409200968523026</v>
       </c>
       <c r="W126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.2640649480131039</v>
       </c>
       <c r="X126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.4234439538527277</v>
       </c>
       <c r="Y126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.8953140578265204</v>
       </c>
       <c r="Z126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.1236291126620142</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>2</v>
       </c>
@@ -11379,7 +12821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M128" s="3" t="s">
         <v>7</v>
       </c>
@@ -11556,99 +12998,99 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ref="C134:Z134" si="6">CORREL($B$2:$B$120,C$2:C$120)</f>
+        <f t="shared" ref="C134:Z134" si="12">CORREL($B$2:$B$120,C$2:C$120)</f>
         <v>-0.18214478965583</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.8161202160043875E-2</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11153752958812362</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.283619510876386E-2</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.8230575298086001E-2</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.16133327699994318</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.25552332982709508</v>
       </c>
       <c r="J134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11031164095248254</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.4659755408774999E-2</v>
       </c>
       <c r="L134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11099863578608991</v>
       </c>
       <c r="M134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.8854944877100151E-2</v>
       </c>
       <c r="N134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.9902682409816795E-2</v>
       </c>
       <c r="O134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.27476490915870477</v>
       </c>
       <c r="P134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.3513598976488991E-2</v>
       </c>
       <c r="Q134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19385862658222683</v>
       </c>
       <c r="R134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.14692834634061069</v>
       </c>
       <c r="S134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.5987913709947128E-2</v>
       </c>
       <c r="T134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.1361827159631528E-2</v>
       </c>
       <c r="U134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.13656238722891059</v>
       </c>
       <c r="V134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.10094298154822391</v>
       </c>
       <c r="W134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17847236718201881</v>
       </c>
       <c r="X134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-4.1595243607084192E-2</v>
       </c>
       <c r="Y134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.22895154620379699</v>
       </c>
       <c r="Z134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.9056857259401501E-2</v>
       </c>
       <c r="AA134" s="6">
@@ -11661,99 +13103,99 @@
         <v>-0.18214478965583</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" ref="C135:Z135" si="7">CORREL($C$2:$C$120,C$2:C$120)</f>
+        <f t="shared" ref="C135:Z135" si="13">CORREL($C$2:$C$120,C$2:C$120)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.32681488788479279</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.3481161394546004E-2</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.10754335714866142</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.39528747038765844</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.49629293421679155</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.10360906535666387</v>
       </c>
       <c r="J135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.38087950786795938</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.34379641539660116</v>
       </c>
       <c r="L135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.40202952232214195</v>
       </c>
       <c r="M135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.2432447279098906E-2</v>
       </c>
       <c r="N135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.34257846731855968</v>
       </c>
       <c r="O135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.36559744351653112</v>
       </c>
       <c r="P135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.2448009128863006E-2</v>
       </c>
       <c r="Q135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.9900695886495219E-2</v>
       </c>
       <c r="R135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.11525634482406223</v>
       </c>
       <c r="S135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.43828004006829052</v>
       </c>
       <c r="T135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.43026299315783689</v>
       </c>
       <c r="U135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.33841391330336296</v>
       </c>
       <c r="V135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.24070917077214463</v>
       </c>
       <c r="W135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.8059244842096046E-2</v>
       </c>
       <c r="X135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.4398212107182879E-2</v>
       </c>
       <c r="Y135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.501473079312028</v>
       </c>
       <c r="Z135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.7374962626922056E-2</v>
       </c>
       <c r="AA135" s="6">
@@ -11766,99 +13208,99 @@
         <v>-8.8161202160043875E-2</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" ref="C136:Z136" si="8">CORREL($D$2:$D$120,C$2:C$120)</f>
+        <f t="shared" ref="C136:Z136" si="14">CORREL($D$2:$D$120,C$2:C$120)</f>
         <v>0.32681488788479279</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9.0354902517995009E-2</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8.7115410911312557E-2</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.33076189781928195</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.26225569843282864</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-9.7165773500034525E-2</v>
       </c>
       <c r="J136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.25919202860050572</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.11831038346218617</v>
       </c>
       <c r="L136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.27997827679861809</v>
       </c>
       <c r="M136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.13312456211023102</v>
       </c>
       <c r="N136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.12847939377783699</v>
       </c>
       <c r="O136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.48711364142635638</v>
       </c>
       <c r="P136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.4784883205154681E-2</v>
       </c>
       <c r="Q136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.0787456944791836E-2</v>
       </c>
       <c r="R136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.14687611507109388</v>
       </c>
       <c r="S136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.26976350050712733</v>
       </c>
       <c r="T136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34277718484949499</v>
       </c>
       <c r="U136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.1338774919170567</v>
       </c>
       <c r="V136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.20294337298344189</v>
       </c>
       <c r="W136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.13166978362072321</v>
       </c>
       <c r="X136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.1594971629105523</v>
       </c>
       <c r="Y136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.24189149861542253</v>
       </c>
       <c r="Z136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.9083987564663671E-2</v>
       </c>
       <c r="AA136" s="6">
@@ -11871,99 +13313,99 @@
         <v>0.11153752958812362</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" ref="C137:Z137" si="9">CORREL($E$2:$E$120,C$2:C$120)</f>
+        <f t="shared" ref="C137:Z137" si="15">CORREL($E$2:$E$120,C$2:C$120)</f>
         <v>4.3481161394546004E-2</v>
       </c>
       <c r="D137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.0354902517995009E-2</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-2.7563447176044264E-2</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.7914260728438064E-2</v>
       </c>
       <c r="H137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-7.8465187820372581E-2</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.7476727608193172E-2</v>
       </c>
       <c r="J137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.2517730639381331E-3</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.23669080045742036</v>
       </c>
       <c r="L137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-7.01428717975493E-2</v>
       </c>
       <c r="M137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.1488238972052385</v>
       </c>
       <c r="N137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.12720436057296586</v>
       </c>
       <c r="O137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.9226423377449487E-2</v>
       </c>
       <c r="P137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.002756714946764E-2</v>
       </c>
       <c r="Q137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.15363322417486908</v>
       </c>
       <c r="R137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.12822228165453411</v>
       </c>
       <c r="S137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.24225681116204989</v>
       </c>
       <c r="T137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.4837848968534266E-2</v>
       </c>
       <c r="U137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.16563066050225134</v>
       </c>
       <c r="V137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1882003570634011E-2</v>
       </c>
       <c r="W137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.20498359404656391</v>
       </c>
       <c r="X137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.5173293186625148E-2</v>
       </c>
       <c r="Y137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-3.2959346998137296E-2</v>
       </c>
       <c r="Z137" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-5.3596856596641269E-2</v>
       </c>
       <c r="AA137" s="6">
@@ -11976,99 +13418,99 @@
         <v>4.283619510876386E-2</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" ref="C138:Z138" si="10">CORREL($F$2:$F$120,C$2:C$120)</f>
+        <f t="shared" ref="C138:Z138" si="16">CORREL($F$2:$F$120,C$2:C$120)</f>
         <v>0.10754335714866142</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.7115410911312557E-2</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2.7563447176044264E-2</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2.11207317362316E-2</v>
       </c>
       <c r="H138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.13183885112665208</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2.3786869030294228E-2</v>
       </c>
       <c r="J138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.3190144951251889E-2</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.14502500441352792</v>
       </c>
       <c r="L138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.20649519651887238</v>
       </c>
       <c r="M138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.15037421691826902</v>
       </c>
       <c r="N138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.11541975584565882</v>
       </c>
       <c r="O138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-8.1334737140329738E-2</v>
       </c>
       <c r="P138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.22376264152938505</v>
       </c>
       <c r="Q138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-1.2368893066642905E-2</v>
       </c>
       <c r="R138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.19508015865187464</v>
       </c>
       <c r="S138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.21867894524070053</v>
       </c>
       <c r="T138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.11166383701469335</v>
       </c>
       <c r="U138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.16077693163343895</v>
       </c>
       <c r="V138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.2513768024165601E-2</v>
       </c>
       <c r="W138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.11148049489340067</v>
       </c>
       <c r="X138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.10099468544210755</v>
       </c>
       <c r="Y138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.17970186541018943</v>
       </c>
       <c r="Z138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.26106198185287238</v>
       </c>
       <c r="AA138" s="6">
@@ -12081,99 +13523,99 @@
         <v>-9.8230575298086001E-2</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" ref="C139:Z139" si="11">CORREL($G$2:$G$120,C$2:C$120)</f>
+        <f t="shared" ref="C139:Z139" si="17">CORREL($G$2:$G$120,C$2:C$120)</f>
         <v>0.39528747038765844</v>
       </c>
       <c r="D139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.33076189781928195</v>
       </c>
       <c r="E139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.7914260728438064E-2</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2.11207317362316E-2</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.435635278345685</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.15352602971951751</v>
       </c>
       <c r="J139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.25079739520044575</v>
       </c>
       <c r="K139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.32840138427998289</v>
       </c>
       <c r="L139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.17698170509936423</v>
       </c>
       <c r="M139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.13487592732820733</v>
       </c>
       <c r="N139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.35480375582832596</v>
       </c>
       <c r="O139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12478417128398646</v>
       </c>
       <c r="P139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9.7020639301301878E-2</v>
       </c>
       <c r="Q139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.2216440613423887E-2</v>
       </c>
       <c r="R139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>8.6253822598997998E-2</v>
       </c>
       <c r="S139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.32059792249553865</v>
       </c>
       <c r="T139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.28139255579091083</v>
       </c>
       <c r="U139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.25375583998261037</v>
       </c>
       <c r="V139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.15846160386148589</v>
       </c>
       <c r="W139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.15387787645682835</v>
       </c>
       <c r="X139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.1307784670802481</v>
       </c>
       <c r="Y139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.3299041945864789</v>
       </c>
       <c r="Z139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7.856156257298888E-2</v>
       </c>
       <c r="AA139" s="6">
@@ -12186,99 +13628,99 @@
         <v>-0.16133327699994318</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" ref="C140:Z140" si="12">CORREL($H$2:$H$120,C$2:C$120)</f>
+        <f t="shared" ref="C140:Z140" si="18">CORREL($H$2:$H$120,C$2:C$120)</f>
         <v>0.49629293421679155</v>
       </c>
       <c r="D140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.26225569843282864</v>
       </c>
       <c r="E140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-7.8465187820372581E-2</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.13183885112665208</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.435635278345685</v>
       </c>
       <c r="H140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.922497056300021E-2</v>
       </c>
       <c r="J140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.39405789991326584</v>
       </c>
       <c r="K140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.21489400963115349</v>
       </c>
       <c r="L140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.22777696841973272</v>
       </c>
       <c r="M140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-5.086780989479369E-2</v>
       </c>
       <c r="N140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.28682752740633899</v>
       </c>
       <c r="O140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.24249511657187131</v>
       </c>
       <c r="P140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-6.3052511031610511E-2</v>
       </c>
       <c r="Q140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.3062510584705197E-2</v>
       </c>
       <c r="R140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.15181622313790993</v>
       </c>
       <c r="S140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.28249723186560727</v>
       </c>
       <c r="T140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.3210966622440013</v>
       </c>
       <c r="U140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.20130738682806631</v>
       </c>
       <c r="V140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.15443790350888018</v>
       </c>
       <c r="W140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.314277466738125E-2</v>
       </c>
       <c r="X140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.20142321338486413</v>
       </c>
       <c r="Y140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.33786539992541892</v>
       </c>
       <c r="Z140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.16127335014570013</v>
       </c>
       <c r="AA140" s="6">
@@ -12291,99 +13733,99 @@
         <v>0.25552332982709508</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" ref="C141:Z141" si="13">CORREL($I$2:$I$120,C$2:C$120)</f>
+        <f t="shared" ref="C141:Z141" si="19">CORREL($I$2:$I$120,C$2:C$120)</f>
         <v>-0.10360906535666387</v>
       </c>
       <c r="D141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-9.7165773500034525E-2</v>
       </c>
       <c r="E141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7.7476727608193172E-2</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-2.3786869030294228E-2</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.15352602971951751</v>
       </c>
       <c r="H141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.922497056300021E-2</v>
       </c>
       <c r="I141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.35359573766636215</v>
       </c>
       <c r="K141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.3829140851003613E-2</v>
       </c>
       <c r="L141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.18821312498082488</v>
       </c>
       <c r="M141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.5905660175428023E-2</v>
       </c>
       <c r="N141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-6.975638473724767E-3</v>
       </c>
       <c r="O141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-5.7926772692687492E-2</v>
       </c>
       <c r="P141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.1405391864328921E-2</v>
       </c>
       <c r="Q141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.33788406854182784</v>
       </c>
       <c r="R141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.9723681573208564E-2</v>
       </c>
       <c r="S141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-3.1870858785940169E-2</v>
       </c>
       <c r="T141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.2912054877170282</v>
       </c>
       <c r="U141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.6684123033595517E-2</v>
       </c>
       <c r="V141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4.1651790282986385E-2</v>
       </c>
       <c r="W141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.20608315922245465</v>
       </c>
       <c r="X141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.19341862011907732</v>
       </c>
       <c r="Y141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.25666932971464768</v>
       </c>
       <c r="Z141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-2.7711955959579735E-2</v>
       </c>
       <c r="AA141" s="6">
@@ -12396,99 +13838,99 @@
         <v>0.11031164095248254</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" ref="C142:Z142" si="14">CORREL($J$2:$J$120,C$2:C$120)</f>
+        <f t="shared" ref="C142:Z142" si="20">CORREL($J$2:$J$120,C$2:C$120)</f>
         <v>-0.38087950786795938</v>
       </c>
       <c r="D142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.25919202860050572</v>
       </c>
       <c r="E142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-1.2517730639381331E-3</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2.3190144951251889E-2</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.25079739520044575</v>
       </c>
       <c r="H142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.39405789991326584</v>
       </c>
       <c r="I142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.35359573766636215</v>
       </c>
       <c r="J142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="K142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.19306635240865708</v>
       </c>
       <c r="L142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.43574362924168752</v>
       </c>
       <c r="M142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-3.7824488634140847E-2</v>
       </c>
       <c r="N142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.33675875123869548</v>
       </c>
       <c r="O142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.21664709178461342</v>
       </c>
       <c r="P142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4.0865037190951588E-2</v>
       </c>
       <c r="Q142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.10796827700400775</v>
       </c>
       <c r="R142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-5.1146668675823605E-3</v>
       </c>
       <c r="S142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.27785148556861033</v>
       </c>
       <c r="T142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.42761920743098453</v>
       </c>
       <c r="U142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.20987013413071887</v>
       </c>
       <c r="V142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.15730394904327399</v>
       </c>
       <c r="W142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-3.108177046425066E-2</v>
       </c>
       <c r="X142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.29786310577687403</v>
       </c>
       <c r="Y142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.39508540522783692</v>
       </c>
       <c r="Z142" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.11837006818957803</v>
       </c>
       <c r="AA142" s="6">
@@ -12501,99 +13943,99 @@
         <v>6.4659755408774999E-2</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" ref="C143:Z143" si="15">CORREL($K$2:$K$120,C$2:C$120)</f>
+        <f t="shared" ref="C143:Z143" si="21">CORREL($K$2:$K$120,C$2:C$120)</f>
         <v>-0.34379641539660116</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.11831038346218617</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.23669080045742036</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.14502500441352792</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.32840138427998289</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.21489400963115349</v>
       </c>
       <c r="I143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.3829140851003613E-2</v>
       </c>
       <c r="J143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.19306635240865708</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.27446702495223202</v>
       </c>
       <c r="M143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.6562410464525063E-2</v>
       </c>
       <c r="N143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.35211264681383642</v>
       </c>
       <c r="O143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.14760989343415931</v>
       </c>
       <c r="P143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.11264260992621762</v>
       </c>
       <c r="Q143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-5.7426047417467381E-2</v>
       </c>
       <c r="R143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-2.6504683508668209E-2</v>
       </c>
       <c r="S143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.54334449432543219</v>
       </c>
       <c r="T143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-0.27402201796647907</v>
       </c>
       <c r="U143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.31555364576029138</v>
       </c>
       <c r="V143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-5.2594707940487033E-2</v>
       </c>
       <c r="W143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-5.0078246882594095E-2</v>
       </c>
       <c r="X143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>8.3908361699164852E-2</v>
       </c>
       <c r="Y143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.32430558997518183</v>
       </c>
       <c r="Z143" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.2388778300499448E-3</v>
       </c>
       <c r="AA143" s="6">
@@ -12606,99 +14048,99 @@
         <v>0.11099863578608991</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" ref="C144:Z144" si="16">CORREL($L$2:$L$120,C$2:C$120)</f>
+        <f t="shared" ref="C144:Z144" si="22">CORREL($L$2:$L$120,C$2:C$120)</f>
         <v>-0.40202952232214195</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.27997827679861809</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-7.01428717975493E-2</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.20649519651887238</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.17698170509936423</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.22777696841973272</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.18821312498082488</v>
       </c>
       <c r="J144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.43574362924168752</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.27446702495223202</v>
       </c>
       <c r="L144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="M144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.11988613400536688</v>
       </c>
       <c r="N144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.46045308844856297</v>
       </c>
       <c r="O144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.39318826593373002</v>
       </c>
       <c r="P144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.1327450400459651</v>
       </c>
       <c r="Q144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-1.9931019865757505E-2</v>
       </c>
       <c r="R144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.22851600231347036</v>
       </c>
       <c r="S144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.36991009953442228</v>
       </c>
       <c r="T144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.44309243533034198</v>
       </c>
       <c r="U144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.29113976233532995</v>
       </c>
       <c r="V144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-6.5824740378209526E-2</v>
       </c>
       <c r="W144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.14991878200683179</v>
       </c>
       <c r="X144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.25242989360897039</v>
       </c>
       <c r="Y144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.47857455553513317</v>
       </c>
       <c r="Z144" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.1541661957274959</v>
       </c>
       <c r="AA144" s="6">
@@ -12711,99 +14153,99 @@
         <v>-1.8854944877100151E-2</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" ref="C145:Z145" si="17">CORREL($M$2:$M$120,C$2:C$120)</f>
+        <f t="shared" ref="C145:Z145" si="23">CORREL($M$2:$M$120,C$2:C$120)</f>
         <v>-6.2432447279098906E-2</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.13312456211023102</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.1488238972052385</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.15037421691826902</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.13487592732820733</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-5.086780989479369E-2</v>
       </c>
       <c r="I145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>9.5905660175428023E-2</v>
       </c>
       <c r="J145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-3.7824488634140847E-2</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.6562410464525063E-2</v>
       </c>
       <c r="L145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.11988613400536688</v>
       </c>
       <c r="M145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="N145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-2.3335663681629842E-2</v>
       </c>
       <c r="O145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.3490647378327969</v>
       </c>
       <c r="P145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.1248920181749485E-2</v>
       </c>
       <c r="Q145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.5278909826367843E-2</v>
       </c>
       <c r="R145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.3899035770872446</v>
       </c>
       <c r="S145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.2846916273464644E-2</v>
       </c>
       <c r="T145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-3.1062221113246732E-2</v>
       </c>
       <c r="U145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-6.9811238865750075E-3</v>
       </c>
       <c r="V145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.12997243341688675</v>
       </c>
       <c r="W145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.11579267519820276</v>
       </c>
       <c r="X145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.1170522345441356</v>
       </c>
       <c r="Y145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>8.291082445887131E-2</v>
       </c>
       <c r="Z145" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-3.6695747298216418E-2</v>
       </c>
       <c r="AA145" s="6">
@@ -12816,99 +14258,99 @@
         <v>4.9902682409816795E-2</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ref="C146:Z146" si="18">CORREL($N$2:$N$120,C$2:C$120)</f>
+        <f t="shared" ref="C146:Z146" si="24">CORREL($N$2:$N$120,C$2:C$120)</f>
         <v>-0.34257846731855968</v>
       </c>
       <c r="D146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.12847939377783699</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.12720436057296586</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.11541975584565882</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.35480375582832596</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.28682752740633899</v>
       </c>
       <c r="I146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-6.975638473724767E-3</v>
       </c>
       <c r="J146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.33675875123869548</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.35211264681383642</v>
       </c>
       <c r="L146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.46045308844856297</v>
       </c>
       <c r="M146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-2.3335663681629842E-2</v>
       </c>
       <c r="N146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.23493789356007458</v>
       </c>
       <c r="P146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.13106068773519017</v>
       </c>
       <c r="Q146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-3.477296876272179E-2</v>
       </c>
       <c r="R146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.19374919871666663</v>
       </c>
       <c r="S146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.46843331784468556</v>
       </c>
       <c r="T146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.40036582520398439</v>
       </c>
       <c r="U146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.31990406601702359</v>
       </c>
       <c r="V146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.15031007779924754</v>
       </c>
       <c r="W146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-0.18884957840941466</v>
       </c>
       <c r="X146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.13395357421020626</v>
       </c>
       <c r="Y146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.352014065592679</v>
       </c>
       <c r="Z146" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>8.2488347492546285E-2</v>
       </c>
       <c r="AA146" s="6">
@@ -12921,99 +14363,99 @@
         <v>-0.27476490915870477</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" ref="C147:Z147" si="19">CORREL($O$2:$O$120,C$2:C$120)</f>
+        <f t="shared" ref="C147:Z147" si="25">CORREL($O$2:$O$120,C$2:C$120)</f>
         <v>0.36559744351653112</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.48711364142635638</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4.9226423377449487E-2</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-8.1334737140329738E-2</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.12478417128398646</v>
       </c>
       <c r="H147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.24249511657187131</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-5.7926772692687492E-2</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.21664709178461342</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.14760989343415931</v>
       </c>
       <c r="L147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.39318826593373002</v>
       </c>
       <c r="M147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.3490647378327969</v>
       </c>
       <c r="N147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.23493789356007458</v>
       </c>
       <c r="O147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="P147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.17594960459177295</v>
       </c>
       <c r="Q147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.1202225760656362</v>
       </c>
       <c r="R147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.15075781262368698</v>
       </c>
       <c r="S147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.33731725360387321</v>
       </c>
       <c r="T147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.36771073991190234</v>
       </c>
       <c r="U147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.37947688952557662</v>
       </c>
       <c r="V147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.33584987473394107</v>
       </c>
       <c r="W147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.2709898728404172</v>
       </c>
       <c r="X147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-4.2583461903490001E-2</v>
       </c>
       <c r="Y147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.32438682433003219</v>
       </c>
       <c r="Z147" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.10362596419666328</v>
       </c>
       <c r="AA147" s="6">
@@ -13026,99 +14468,99 @@
         <v>6.3513598976488991E-2</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" ref="C148:Z148" si="20">CORREL($P$2:$P$120,C$2:C$120)</f>
+        <f t="shared" ref="C148:Z148" si="26">CORREL($P$2:$P$120,C$2:C$120)</f>
         <v>8.2448009128863006E-2</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-7.4784883205154681E-2</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>8.002756714946764E-2</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.22376264152938505</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9.7020639301301878E-2</v>
       </c>
       <c r="H148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-6.3052511031610511E-2</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>8.1405391864328921E-2</v>
       </c>
       <c r="J148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.0865037190951588E-2</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.11264260992621762</v>
       </c>
       <c r="L148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.1327450400459651</v>
       </c>
       <c r="M148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.1248920181749485E-2</v>
       </c>
       <c r="N148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.13106068773519017</v>
       </c>
       <c r="O148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.17594960459177295</v>
       </c>
       <c r="P148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.2082189648577204</v>
       </c>
       <c r="R148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-8.8732195170677555E-2</v>
       </c>
       <c r="S148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.15311755351276363</v>
       </c>
       <c r="T148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-2.8897545230377266E-2</v>
       </c>
       <c r="U148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.21845639140154974</v>
       </c>
       <c r="V148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9.361833424764418E-2</v>
       </c>
       <c r="W148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.3767102316744117E-2</v>
       </c>
       <c r="X148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.10568928011285003</v>
       </c>
       <c r="Y148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-3.6742029591663432E-3</v>
       </c>
       <c r="Z148" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.25403953652950756</v>
       </c>
       <c r="AA148" s="6">
@@ -13131,99 +14573,99 @@
         <v>0.19385862658222683</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" ref="C149:Z149" si="21">CORREL($Q$2:$Q$120,C$2:C$120)</f>
+        <f t="shared" ref="C149:Z149" si="27">CORREL($Q$2:$Q$120,C$2:C$120)</f>
         <v>-4.9900695886495219E-2</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-3.0787456944791836E-2</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.15363322417486908</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-1.2368893066642905E-2</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.2216440613423887E-2</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.3062510584705197E-2</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.33788406854182784</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.10796827700400775</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-5.7426047417467381E-2</v>
       </c>
       <c r="L149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-1.9931019865757505E-2</v>
       </c>
       <c r="M149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.5278909826367843E-2</v>
       </c>
       <c r="N149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-3.477296876272179E-2</v>
       </c>
       <c r="O149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-0.1202225760656362</v>
       </c>
       <c r="P149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.2082189648577204</v>
       </c>
       <c r="Q149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-7.7900395209908962E-2</v>
       </c>
       <c r="S149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-2.2405242798754707E-2</v>
       </c>
       <c r="T149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-4.5543795720906208E-2</v>
       </c>
       <c r="U149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-2.6591571301047062E-3</v>
       </c>
       <c r="V149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.340824758451111E-2</v>
       </c>
       <c r="W149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-6.5240435983058301E-2</v>
       </c>
       <c r="X149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.5582014297170393E-3</v>
       </c>
       <c r="Y149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.4839623285128322E-2</v>
       </c>
       <c r="Z149" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-0.25414541824091613</v>
       </c>
       <c r="AA149" s="6">
@@ -13236,99 +14678,99 @@
         <v>-0.14692834634061069</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" ref="C150:Z150" si="22">CORREL($R$2:$R$120,C$2:C$120)</f>
+        <f t="shared" ref="C150:Z150" si="28">CORREL($R$2:$R$120,C$2:C$120)</f>
         <v>0.11525634482406223</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.14687611507109388</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.12822228165453411</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.19508015865187464</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>8.6253822598997998E-2</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.15181622313790993</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.9723681573208564E-2</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-5.1146668675823605E-3</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-2.6504683508668209E-2</v>
       </c>
       <c r="L150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.22851600231347036</v>
       </c>
       <c r="M150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.3899035770872446</v>
       </c>
       <c r="N150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.19374919871666663</v>
       </c>
       <c r="O150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.15075781262368698</v>
       </c>
       <c r="P150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-8.8732195170677555E-2</v>
       </c>
       <c r="Q150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-7.7900395209908962E-2</v>
       </c>
       <c r="R150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="S150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-2.4998759449622071E-2</v>
       </c>
       <c r="T150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.12010450393608642</v>
       </c>
       <c r="U150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-3.7096984880948057E-2</v>
       </c>
       <c r="V150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>9.7986830326500282E-2</v>
       </c>
       <c r="W150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-4.7076002883888621E-2</v>
       </c>
       <c r="X150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>7.5642153572622869E-2</v>
       </c>
       <c r="Y150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.3342494837538962E-2</v>
       </c>
       <c r="Z150" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.24856289411024246</v>
       </c>
       <c r="AA150" s="6">
@@ -13341,99 +14783,99 @@
         <v>-8.5987913709947128E-2</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" ref="C151:Z151" si="23">CORREL($S$2:$S$120,C$2:C$120)</f>
+        <f t="shared" ref="C151:Z151" si="29">CORREL($S$2:$S$120,C$2:C$120)</f>
         <v>0.43828004006829052</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.26976350050712733</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.24225681116204989</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.21867894524070053</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.32059792249553865</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.28249723186560727</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-3.1870858785940169E-2</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.27785148556861033</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.54334449432543219</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.36991009953442228</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>3.2846916273464644E-2</v>
       </c>
       <c r="N151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.46843331784468556</v>
       </c>
       <c r="O151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.33731725360387321</v>
       </c>
       <c r="P151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.15311755351276363</v>
       </c>
       <c r="Q151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-2.2405242798754707E-2</v>
       </c>
       <c r="R151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-2.4998759449622071E-2</v>
       </c>
       <c r="S151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="T151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.46931595969871104</v>
       </c>
       <c r="U151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.47313808691311676</v>
       </c>
       <c r="V151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>8.324227726881181E-2</v>
       </c>
       <c r="W151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>8.9911919363836565E-2</v>
       </c>
       <c r="X151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-7.802108773361062E-2</v>
       </c>
       <c r="Y151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.50991653408828075</v>
       </c>
       <c r="Z151" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-3.2756471647741835E-2</v>
       </c>
       <c r="AA151" s="6">
@@ -13446,99 +14888,99 @@
         <v>-1.1361827159631528E-2</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" ref="C152:Z152" si="24">CORREL($T$2:$T$120,C$2:C$120)</f>
+        <f t="shared" ref="C152:Z152" si="30">CORREL($T$2:$T$120,C$2:C$120)</f>
         <v>0.43026299315783689</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.34277718484949499</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4.4837848968534266E-2</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.11166383701469335</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.28139255579091083</v>
       </c>
       <c r="H152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.3210966622440013</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.2912054877170282</v>
       </c>
       <c r="J152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.42761920743098453</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.27402201796647907</v>
       </c>
       <c r="L152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.44309243533034198</v>
       </c>
       <c r="M152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-3.1062221113246732E-2</v>
       </c>
       <c r="N152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.40036582520398439</v>
       </c>
       <c r="O152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.36771073991190234</v>
       </c>
       <c r="P152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-2.8897545230377266E-2</v>
       </c>
       <c r="Q152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-4.5543795720906208E-2</v>
       </c>
       <c r="R152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.12010450393608642</v>
       </c>
       <c r="S152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.46931595969871104</v>
       </c>
       <c r="T152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="U152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.34296076845262818</v>
       </c>
       <c r="V152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.15834434406291359</v>
       </c>
       <c r="W152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.10679876830063741</v>
       </c>
       <c r="X152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.22079406843313398</v>
       </c>
       <c r="Y152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.66417254053371766</v>
       </c>
       <c r="Z152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-1.8726352412337069E-2</v>
       </c>
       <c r="AA152" s="6">
@@ -13551,99 +14993,99 @@
         <v>0.13656238722891059</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" ref="C153:Z153" si="25">CORREL($U$2:$U$120,C$2:C$120)</f>
+        <f t="shared" ref="C153:Z153" si="31">CORREL($U$2:$U$120,C$2:C$120)</f>
         <v>-0.33841391330336296</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.1338774919170567</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.16563066050225134</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.16077693163343895</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.25375583998261037</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.20130738682806631</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>8.6684123033595517E-2</v>
       </c>
       <c r="J153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.20987013413071887</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.31555364576029138</v>
       </c>
       <c r="L153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.29113976233532995</v>
       </c>
       <c r="M153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-6.9811238865750075E-3</v>
       </c>
       <c r="N153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.31990406601702359</v>
       </c>
       <c r="O153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.37947688952557662</v>
       </c>
       <c r="P153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.21845639140154974</v>
       </c>
       <c r="Q153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-2.6591571301047062E-3</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.7096984880948057E-2</v>
       </c>
       <c r="S153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.47313808691311676</v>
       </c>
       <c r="T153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.34296076845262818</v>
       </c>
       <c r="U153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.12141072479661207</v>
       </c>
       <c r="W153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-1.78639424256299E-2</v>
       </c>
       <c r="X153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.7453500981410752E-2</v>
       </c>
       <c r="Y153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.41320758134531738</v>
       </c>
       <c r="Z153" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.042863896605023E-2</v>
       </c>
       <c r="AA153" s="6">
@@ -13656,99 +15098,99 @@
         <v>-0.10094298154822391</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" ref="C154:Z154" si="26">CORREL($V$2:$V$120,C$2:C$120)</f>
+        <f t="shared" ref="C154:Z154" si="32">CORREL($V$2:$V$120,C$2:C$120)</f>
         <v>0.24070917077214463</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.20294337298344189</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3.1882003570634011E-2</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8.2513768024165601E-2</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.15846160386148589</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.15443790350888018</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.1651790282986385E-2</v>
       </c>
       <c r="J154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.15730394904327399</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-5.2594707940487033E-2</v>
       </c>
       <c r="L154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-6.5824740378209526E-2</v>
       </c>
       <c r="M154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.12997243341688675</v>
       </c>
       <c r="N154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.15031007779924754</v>
       </c>
       <c r="O154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33584987473394107</v>
       </c>
       <c r="P154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.361833424764418E-2</v>
       </c>
       <c r="Q154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.340824758451111E-2</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.7986830326500282E-2</v>
       </c>
       <c r="S154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8.324227726881181E-2</v>
       </c>
       <c r="T154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.15834434406291359</v>
       </c>
       <c r="U154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.12141072479661207</v>
       </c>
       <c r="V154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="W154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.2487108774982342</v>
       </c>
       <c r="X154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.13783988829047064</v>
       </c>
       <c r="Y154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-7.242550145145131E-2</v>
       </c>
       <c r="Z154" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.19282430566250197</v>
       </c>
       <c r="AA154" s="6">
@@ -13761,99 +15203,99 @@
         <v>0.17847236718201881</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" ref="C155:Z155" si="27">CORREL($W$2:$W$120,C$2:C$120)</f>
+        <f t="shared" ref="C155:Z155" si="33">CORREL($W$2:$W$120,C$2:C$120)</f>
         <v>7.8059244842096046E-2</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.13166978362072321</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.20498359404656391</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.11148049489340067</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.15387787645682835</v>
       </c>
       <c r="H155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8.314277466738125E-2</v>
       </c>
       <c r="I155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.20608315922245465</v>
       </c>
       <c r="J155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-3.108177046425066E-2</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-5.0078246882594095E-2</v>
       </c>
       <c r="L155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.14991878200683179</v>
       </c>
       <c r="M155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.11579267519820276</v>
       </c>
       <c r="N155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.18884957840941466</v>
       </c>
       <c r="O155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.2709898728404172</v>
       </c>
       <c r="P155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3.3767102316744117E-2</v>
       </c>
       <c r="Q155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-6.5240435983058301E-2</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-4.7076002883888621E-2</v>
       </c>
       <c r="S155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8.9911919363836565E-2</v>
       </c>
       <c r="T155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.10679876830063741</v>
       </c>
       <c r="U155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.78639424256299E-2</v>
       </c>
       <c r="V155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.2487108774982342</v>
       </c>
       <c r="W155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.19073081464409156</v>
       </c>
       <c r="Y155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.3476343302516819E-2</v>
       </c>
       <c r="Z155" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.31851026312940606</v>
       </c>
       <c r="AA155" s="6">
@@ -13866,99 +15308,99 @@
         <v>-4.1595243607084192E-2</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" ref="C156:Z156" si="28">CORREL($X$2:$X$120,C$2:C$120)</f>
+        <f t="shared" ref="C156:Z156" si="34">CORREL($X$2:$X$120,C$2:C$120)</f>
         <v>-7.4398212107182879E-2</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.1594971629105523</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>7.5173293186625148E-2</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.10099468544210755</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.1307784670802481</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.20142321338486413</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.19341862011907732</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.29786310577687403</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>8.3908361699164852E-2</v>
       </c>
       <c r="L156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.25242989360897039</v>
       </c>
       <c r="M156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.1170522345441356</v>
       </c>
       <c r="N156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.13395357421020626</v>
       </c>
       <c r="O156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-4.2583461903490001E-2</v>
       </c>
       <c r="P156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.10568928011285003</v>
       </c>
       <c r="Q156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.5582014297170393E-3</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>7.5642153572622869E-2</v>
       </c>
       <c r="S156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-7.802108773361062E-2</v>
       </c>
       <c r="T156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.22079406843313398</v>
       </c>
       <c r="U156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.7453500981410752E-2</v>
       </c>
       <c r="V156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.13783988829047064</v>
       </c>
       <c r="W156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.19073081464409156</v>
       </c>
       <c r="X156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.2473522710101016</v>
       </c>
       <c r="Z156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.16027705649014895</v>
       </c>
       <c r="AA156" s="6">
@@ -13971,99 +15413,99 @@
         <v>0.22895154620379699</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" ref="C157:Z157" si="29">CORREL($Y$2:$Y$120,C$2:C$120)</f>
+        <f t="shared" ref="C157:Z157" si="35">CORREL($Y$2:$Y$120,C$2:C$120)</f>
         <v>-0.501473079312028</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.24189149861542253</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-3.2959346998137296E-2</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.17970186541018943</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.3299041945864789</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.33786539992541892</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.25666932971464768</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.39508540522783692</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.32430558997518183</v>
       </c>
       <c r="L157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.47857455553513317</v>
       </c>
       <c r="M157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>8.291082445887131E-2</v>
       </c>
       <c r="N157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.352014065592679</v>
       </c>
       <c r="O157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.32438682433003219</v>
       </c>
       <c r="P157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-3.6742029591663432E-3</v>
       </c>
       <c r="Q157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>2.4839623285128322E-2</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>3.3342494837538962E-2</v>
       </c>
       <c r="S157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.50991653408828075</v>
       </c>
       <c r="T157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.66417254053371766</v>
       </c>
       <c r="U157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.41320758134531738</v>
       </c>
       <c r="V157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-7.242550145145131E-2</v>
       </c>
       <c r="W157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-1.3476343302516819E-2</v>
       </c>
       <c r="X157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.2473522710101016</v>
       </c>
       <c r="Y157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Z157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>5.1932045663466458E-2</v>
       </c>
       <c r="AA157" s="6">
@@ -14076,99 +15518,99 @@
         <v>-3.9056857259401501E-2</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" ref="C158:Z158" si="30">CORREL($Z$2:$Z$120,C$2:C$120)</f>
+        <f t="shared" ref="C158:Z158" si="36">CORREL($Z$2:$Z$120,C$2:C$120)</f>
         <v>4.7374962626922056E-2</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>7.9083987564663671E-2</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-5.3596856596641269E-2</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.26106198185287238</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>7.856156257298888E-2</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.16127335014570013</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.7711955959579735E-2</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.11837006818957803</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.2388778300499448E-3</v>
       </c>
       <c r="L158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.1541661957274959</v>
       </c>
       <c r="M158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.6695747298216418E-2</v>
       </c>
       <c r="N158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.2488347492546285E-2</v>
       </c>
       <c r="O158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.10362596419666328</v>
       </c>
       <c r="P158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.25403953652950756</v>
       </c>
       <c r="Q158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.25414541824091613</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.24856289411024246</v>
       </c>
       <c r="S158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.2756471647741835E-2</v>
       </c>
       <c r="T158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.8726352412337069E-2</v>
       </c>
       <c r="U158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.042863896605023E-2</v>
       </c>
       <c r="V158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.19282430566250197</v>
       </c>
       <c r="W158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.31851026312940606</v>
       </c>
       <c r="X158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.16027705649014895</v>
       </c>
       <c r="Y158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5.1932045663466458E-2</v>
       </c>
       <c r="Z158" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AA158" s="6">
@@ -14231,7 +15673,7 @@
     <mergeCell ref="B131:X131"/>
   </mergeCells>
   <conditionalFormatting sqref="B134:Z158">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
@@ -14243,7 +15685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:Z126">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14255,7 +15697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:Z125">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="-2"/>
         <cfvo type="num" val="0"/>
@@ -14267,11 +15709,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:Z124">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA120">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AAEDE8F9-8F94-445E-A655-34516B57D094}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB120">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{120C2A62-AC53-45C1-A9FA-E083552A4416}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD120">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC120">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-2"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -14284,7 +15778,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{4962C10C-FCE2-49B7-BDF4-E249BB1014FD}">
+          <x14:cfRule type="iconSet" priority="5" id="{4962C10C-FCE2-49B7-BDF4-E249BB1014FD}">
             <x14:iconSet iconSet="3Stars" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14302,6 +15796,32 @@
           </x14:cfRule>
           <xm:sqref>B134:Z158</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AAEDE8F9-8F94-445E-A655-34516B57D094}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA2:AA120</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{120C2A62-AC53-45C1-A9FA-E083552A4416}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AB2:AB120</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -14313,7 +15833,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14738,7 +16258,7 @@
     </row>
     <row r="8" spans="1:27" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.25552332982709508</v>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>Положительная корреляция — на вопросы отвечают чаще одинаково. Отрицательная — чаще дают противоположные ответы. 0 — ответы никак не связаны. 1 — ответы в точности одинаковые</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>9_10_11_13_20_24</t>
+  </si>
+  <si>
+    <t>ййй</t>
+  </si>
+  <si>
+    <t>22+25</t>
+  </si>
+  <si>
+    <t>22+25-15</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AE172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC120" sqref="AC2:AC120"/>
+    <sheetView tabSelected="1" topLeftCell="N76" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AE120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1191,7 @@
     <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1267,8 +1276,14 @@
       <c r="AB1" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1359,8 +1374,16 @@
         <f>(AA2-AB2)/13</f>
         <v>1.8461538461538463</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="1">
+        <f>W2+Z2-P2</f>
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>W2+Z2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1451,8 +1474,16 @@
         <f t="shared" ref="AC3:AC66" si="2">(AA3-AB3)/13</f>
         <v>-0.15384615384615385</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3" s="1">
+        <f t="shared" ref="AD3:AD66" si="3">W3+Z3-P3</f>
+        <v>-2</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" ref="AE3:AE66" si="4">W3+Z3</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1543,8 +1574,16 @@
         <f t="shared" si="2"/>
         <v>-1.3076923076923077</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1635,8 +1674,16 @@
         <f t="shared" si="2"/>
         <v>1.0769230769230769</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1727,8 +1774,16 @@
         <f t="shared" si="2"/>
         <v>-0.30769230769230771</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1819,8 +1874,16 @@
         <f t="shared" si="2"/>
         <v>-0.69230769230769229</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1911,8 +1974,16 @@
         <f t="shared" si="2"/>
         <v>1.7692307692307692</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2003,8 +2074,16 @@
         <f t="shared" si="2"/>
         <v>-0.15384615384615385</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2095,8 +2174,16 @@
         <f t="shared" si="2"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2187,8 +2274,16 @@
         <f t="shared" si="2"/>
         <v>-0.61538461538461542</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2279,8 +2374,16 @@
         <f t="shared" si="2"/>
         <v>-0.23076923076923078</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2371,8 +2474,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2463,8 +2574,16 @@
         <f t="shared" si="2"/>
         <v>0.38461538461538464</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2555,8 +2674,16 @@
         <f t="shared" si="2"/>
         <v>1.3076923076923077</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2647,8 +2774,16 @@
         <f t="shared" si="2"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2739,8 +2874,16 @@
         <f t="shared" si="2"/>
         <v>-0.84615384615384615</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2831,8 +2974,16 @@
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2923,8 +3074,16 @@
         <f t="shared" si="2"/>
         <v>-1.2307692307692308</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -3015,8 +3174,16 @@
         <f t="shared" si="2"/>
         <v>-0.23076923076923078</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3107,8 +3274,16 @@
         <f t="shared" si="2"/>
         <v>-0.46153846153846156</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -3199,8 +3374,16 @@
         <f t="shared" si="2"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3291,8 +3474,16 @@
         <f t="shared" si="2"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -3383,8 +3574,16 @@
         <f t="shared" si="2"/>
         <v>-1.1538461538461537</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -3475,8 +3674,16 @@
         <f t="shared" si="2"/>
         <v>-1.0769230769230769</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3567,8 +3774,16 @@
         <f t="shared" si="2"/>
         <v>-1.4615384615384615</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -3659,8 +3874,16 @@
         <f t="shared" si="2"/>
         <v>1.3076923076923077</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -3751,8 +3974,16 @@
         <f t="shared" si="2"/>
         <v>-1.0769230769230769</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -3843,8 +4074,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -3935,8 +4174,16 @@
         <f t="shared" si="2"/>
         <v>-0.53846153846153844</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -4027,8 +4274,16 @@
         <f t="shared" si="2"/>
         <v>-0.69230769230769229</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD31" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -4119,8 +4374,16 @@
         <f t="shared" si="2"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -4211,8 +4474,16 @@
         <f t="shared" si="2"/>
         <v>1.0769230769230769</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD33" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -4303,8 +4574,16 @@
         <f t="shared" si="2"/>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD34" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -4395,8 +4674,16 @@
         <f t="shared" si="2"/>
         <v>0.38461538461538464</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -4487,8 +4774,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD36" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -4579,8 +4874,16 @@
         <f t="shared" si="2"/>
         <v>-1.5384615384615385</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -4671,8 +4974,16 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -4763,8 +5074,16 @@
         <f t="shared" si="2"/>
         <v>-0.38461538461538464</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -4855,8 +5174,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -4947,8 +5274,16 @@
         <f t="shared" si="2"/>
         <v>1.0769230769230769</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -5039,8 +5374,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -5131,8 +5474,16 @@
         <f t="shared" si="2"/>
         <v>-1.5384615384615385</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -5223,8 +5574,16 @@
         <f t="shared" si="2"/>
         <v>-1.3846153846153846</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -5315,8 +5674,16 @@
         <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -5407,8 +5774,16 @@
         <f t="shared" si="2"/>
         <v>-0.46153846153846156</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AE46" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -5499,8 +5874,16 @@
         <f t="shared" si="2"/>
         <v>-1.3076923076923077</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE47" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5591,8 +5974,16 @@
         <f t="shared" si="2"/>
         <v>-1.3076923076923077</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -5683,8 +6074,16 @@
         <f t="shared" si="2"/>
         <v>-0.53846153846153844</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="AE49" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -5775,8 +6174,16 @@
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="1">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="AE50" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -5867,8 +6274,16 @@
         <f t="shared" si="2"/>
         <v>-0.53846153846153844</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -5959,8 +6374,16 @@
         <f t="shared" si="2"/>
         <v>-0.84615384615384615</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AE52" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -6051,8 +6474,16 @@
         <f t="shared" si="2"/>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE53" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -6143,8 +6574,16 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE54" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -6235,8 +6674,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AE55" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -6327,8 +6774,16 @@
         <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE56" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -6419,8 +6874,16 @@
         <f t="shared" si="2"/>
         <v>-0.84615384615384615</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AE57" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -6511,8 +6974,16 @@
         <f t="shared" si="2"/>
         <v>-1.0769230769230769</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD58" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="AE58" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -6603,8 +7074,16 @@
         <f t="shared" si="2"/>
         <v>-0.38461538461538464</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE59" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -6695,8 +7174,16 @@
         <f t="shared" si="2"/>
         <v>0.38461538461538464</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD60" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -6787,8 +7274,16 @@
         <f t="shared" si="2"/>
         <v>-7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD61" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE61" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -6879,8 +7374,16 @@
         <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD62" s="1">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="AE62" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -6971,8 +7474,16 @@
         <f t="shared" si="2"/>
         <v>-0.53846153846153844</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD63" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="AE63" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -7063,8 +7574,16 @@
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD64" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AE64" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -7155,8 +7674,16 @@
         <f t="shared" si="2"/>
         <v>1.2307692307692308</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD65" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -7247,8 +7774,16 @@
         <f t="shared" si="2"/>
         <v>-0.61538461538461542</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD66" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE66" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -7328,19 +7863,27 @@
         <v>-1</v>
       </c>
       <c r="AA67" s="1">
-        <f t="shared" ref="AA67:AA120" si="3">C67+D67+G67+H67+O67+S67+T67</f>
+        <f t="shared" ref="AA67:AA120" si="5">C67+D67+G67+H67+O67+S67+T67</f>
         <v>-5</v>
       </c>
       <c r="AB67" s="1">
-        <f t="shared" ref="AB67:AB120" si="4">J67+K67+L67+N67+U67+Y67</f>
+        <f t="shared" ref="AB67:AB120" si="6">J67+K67+L67+N67+U67+Y67</f>
         <v>5</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" ref="AC67:AC120" si="5">(AA67-AB67)/13</f>
+        <f t="shared" ref="AC67:AC120" si="7">(AA67-AB67)/13</f>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD67" s="1">
+        <f t="shared" ref="AD67:AD120" si="8">W67+Z67-P67</f>
+        <v>-3</v>
+      </c>
+      <c r="AE67" s="1">
+        <f t="shared" ref="AE67:AE120" si="9">W67+Z67</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -7420,19 +7963,27 @@
         <v>2</v>
       </c>
       <c r="AA68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD68" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AE68" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -7512,19 +8063,27 @@
         <v>-2</v>
       </c>
       <c r="AA69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AB69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="AC69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2307692307692308</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD69" s="1">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="AE69" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -7604,19 +8163,27 @@
         <v>2</v>
       </c>
       <c r="AA70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="AB70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AC70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2307692307692308</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD70" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AE70" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -7696,19 +8263,27 @@
         <v>-2</v>
       </c>
       <c r="AA71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AC71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.61538461538461542</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD71" s="1">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="AE71" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -7788,19 +8363,27 @@
         <v>2</v>
       </c>
       <c r="AA72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AB72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AC72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.38461538461538464</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD72" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AE72" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -7880,19 +8463,27 @@
         <v>2</v>
       </c>
       <c r="AA73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="AC73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1538461538461537</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD73" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE73" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -7972,19 +8563,27 @@
         <v>-1</v>
       </c>
       <c r="AA74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="AB74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AC74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5384615384615385</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD74" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AE74" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -8064,19 +8663,27 @@
         <v>1</v>
       </c>
       <c r="AA75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AB75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD75" s="1">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="AE75" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -8156,19 +8763,27 @@
         <v>1</v>
       </c>
       <c r="AA76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
       <c r="AB76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AC76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6153846153846154</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD76" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE76" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -8248,19 +8863,27 @@
         <v>-2</v>
       </c>
       <c r="AA77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-12</v>
       </c>
       <c r="AB77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AC77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3076923076923077</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD77" s="1">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="AE77" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -8340,19 +8963,27 @@
         <v>0</v>
       </c>
       <c r="AA78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="AB78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.30769230769230771</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD78" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AE78" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -8432,19 +9063,27 @@
         <v>1</v>
       </c>
       <c r="AA79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.15384615384615385</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD79" s="1">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="AE79" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -8524,19 +9163,27 @@
         <v>-2</v>
       </c>
       <c r="AA80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AB80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="AC80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4615384615384615</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD80" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AE80" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -8616,19 +9263,27 @@
         <v>1</v>
       </c>
       <c r="AA81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AC81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD81" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AE81" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -8708,19 +9363,27 @@
         <v>-2</v>
       </c>
       <c r="AA82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="AC82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0769230769230769</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD82" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AE82" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -8800,19 +9463,27 @@
         <v>1</v>
       </c>
       <c r="AA83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AB83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AC83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD83" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE83" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -8892,19 +9563,27 @@
         <v>2</v>
       </c>
       <c r="AA84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AC84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.38461538461538464</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD84" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AE84" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -8984,19 +9663,27 @@
         <v>-1</v>
       </c>
       <c r="AA85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6</v>
       </c>
       <c r="AB85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AC85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD85" s="1">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="AE85" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -9076,19 +9763,27 @@
         <v>1</v>
       </c>
       <c r="AA86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AB86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="AC86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69230769230769229</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD86" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE86" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -9168,19 +9863,27 @@
         <v>-1</v>
       </c>
       <c r="AA87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="AB87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AC87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.76923076923076927</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD87" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AE87" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -9260,19 +9963,27 @@
         <v>2</v>
       </c>
       <c r="AA88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AC88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD88" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AE88" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -9352,19 +10063,27 @@
         <v>1</v>
       </c>
       <c r="AA89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AB89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD89" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE89" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -9444,19 +10163,27 @@
         <v>-1</v>
       </c>
       <c r="AA90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.23076923076923078</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD90" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -9536,19 +10263,27 @@
         <v>-2</v>
       </c>
       <c r="AA91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AC91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.30769230769230771</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD91" s="1">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="AE91" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -9628,19 +10363,27 @@
         <v>1</v>
       </c>
       <c r="AA92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AC92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD92" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -9720,19 +10463,27 @@
         <v>-1</v>
       </c>
       <c r="AA93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="AC93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.53846153846153844</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD93" s="1">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="AE93" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
@@ -9812,19 +10563,27 @@
         <v>-2</v>
       </c>
       <c r="AA94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="AB94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AC94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.61538461538461542</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD94" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AE94" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -9904,19 +10663,27 @@
         <v>1</v>
       </c>
       <c r="AA95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="AB95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AC95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.69230769230769229</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD95" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AE95" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>104</v>
       </c>
@@ -9996,19 +10763,27 @@
         <v>1</v>
       </c>
       <c r="AA96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AB96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="AC96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD96" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE96" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -10088,19 +10863,27 @@
         <v>-2</v>
       </c>
       <c r="AA97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="AB97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AC97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2307692307692308</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD97" s="1">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="AE97" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -10180,19 +10963,27 @@
         <v>1</v>
       </c>
       <c r="AA98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="AB98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.30769230769230771</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD98" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AE98" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -10272,19 +11063,27 @@
         <v>-2</v>
       </c>
       <c r="AA99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AC99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.30769230769230771</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD99" s="1">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="AE99" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -10364,19 +11163,27 @@
         <v>1</v>
       </c>
       <c r="AA100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
       <c r="AB100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AC100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3846153846153846</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD100" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -10456,19 +11263,27 @@
         <v>-1</v>
       </c>
       <c r="AA101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AC101" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.30769230769230771</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD101" s="1">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="AE101" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -10548,19 +11363,27 @@
         <v>1</v>
       </c>
       <c r="AA102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AB102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC102" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.15384615384615385</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD102" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE102" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -10640,19 +11463,27 @@
         <v>0</v>
       </c>
       <c r="AA103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AB103" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC103" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.23076923076923078</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD103" s="1">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="AE103" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -10732,19 +11563,27 @@
         <v>-2</v>
       </c>
       <c r="AA104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AB104" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD104" s="1">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="AE104" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
@@ -10824,19 +11663,27 @@
         <v>1</v>
       </c>
       <c r="AA105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="AB105" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AC105" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.84615384615384615</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD105" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
@@ -10916,19 +11763,27 @@
         <v>-2</v>
       </c>
       <c r="AA106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AB106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="AC106" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD106" s="1">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="AE106" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -11008,19 +11863,27 @@
         <v>1</v>
       </c>
       <c r="AA107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="AC107" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3846153846153846</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD107" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE107" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -11100,19 +11963,27 @@
         <v>1</v>
       </c>
       <c r="AA108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AB108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="AC108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD108" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE108" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -11192,19 +12063,27 @@
         <v>-1</v>
       </c>
       <c r="AA109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD109" s="1">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="AE109" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
@@ -11284,19 +12163,27 @@
         <v>2</v>
       </c>
       <c r="AA110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AB110" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="AC110" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD110" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE110" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
@@ -11376,19 +12263,27 @@
         <v>-1</v>
       </c>
       <c r="AA111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="AB111" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AC111" s="1">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AD111" s="1">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="AE111" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -11468,19 +12363,27 @@
         <v>1</v>
       </c>
       <c r="AA112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB112" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.69230769230769229</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD112" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AE112" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -11560,19 +12463,27 @@
         <v>-1</v>
       </c>
       <c r="AA113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="AB113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AC113" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9230769230769231</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD113" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AE113" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
@@ -11652,19 +12563,27 @@
         <v>2</v>
       </c>
       <c r="AA114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="AB114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AC114" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.92307692307692313</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD114" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE114" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
@@ -11744,19 +12663,27 @@
         <v>-2</v>
       </c>
       <c r="AA115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="AB115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AC115" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.92307692307692313</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD115" s="1">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="AE115" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
@@ -11836,19 +12763,27 @@
         <v>-1</v>
       </c>
       <c r="AA116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="AB116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AC116" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5384615384615385</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD116" s="1">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="AE116" s="1">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
@@ -11928,19 +12863,27 @@
         <v>1</v>
       </c>
       <c r="AA117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AB117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="AC117" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3076923076923077</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD117" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE117" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
@@ -12020,19 +12963,27 @@
         <v>0</v>
       </c>
       <c r="AA118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AB118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC118" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.46153846153846156</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD118" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AE118" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
@@ -12112,19 +13063,27 @@
         <v>-1</v>
       </c>
       <c r="AA119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AB119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC119" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD119" s="1">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="AE119" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
@@ -12204,19 +13163,27 @@
         <v>2</v>
       </c>
       <c r="AA120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AB120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC120" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.46153846153846156</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD120" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE120" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>6</v>
       </c>
@@ -12225,103 +13192,103 @@
         <v>110</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" ref="C122:Z122" si="6">SUM(C2:C120)</f>
+        <f t="shared" ref="C122:Z122" si="10">SUM(C2:C120)</f>
         <v>-51</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-19</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="I122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="J122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="N122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-42</v>
       </c>
       <c r="O122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-99</v>
       </c>
       <c r="P122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="Q122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
       <c r="R122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-121</v>
       </c>
       <c r="S122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="T122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-111</v>
       </c>
       <c r="U122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-187</v>
       </c>
       <c r="W122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-10</v>
       </c>
       <c r="X122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="Y122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="Z122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>5</v>
       </c>
@@ -12330,103 +13297,103 @@
         <v>172</v>
       </c>
       <c r="C123" s="5">
-        <f t="shared" ref="C123:Z123" si="7">SUMIF(C2:C120,"&gt;=0")-SUMIF(C2:C120,"&lt;0")</f>
+        <f t="shared" ref="C123:Z123" si="11">SUMIF(C2:C120,"&gt;=0")-SUMIF(C2:C120,"&lt;0")</f>
         <v>155</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>169</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>145</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>186</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>166</v>
       </c>
       <c r="I123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>201</v>
       </c>
       <c r="J123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>195</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>151</v>
       </c>
       <c r="L123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>177</v>
       </c>
       <c r="N123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>158</v>
       </c>
       <c r="O123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>189</v>
       </c>
       <c r="P123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>181</v>
       </c>
       <c r="Q123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>203</v>
       </c>
       <c r="R123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>163</v>
       </c>
       <c r="S123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="T123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>189</v>
       </c>
       <c r="U123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="V123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>209</v>
       </c>
       <c r="W123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>166</v>
       </c>
       <c r="X123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>158</v>
       </c>
       <c r="Y123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="Z123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>8</v>
       </c>
@@ -12435,208 +13402,208 @@
         <v>62</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" ref="C124:Z124" si="8">C123-ABS(C122)</f>
+        <f t="shared" ref="C124:Z124" si="12">C123-ABS(C122)</f>
         <v>104</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>126</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="H124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="I124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="K124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="L124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="N124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="O124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="P124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="Q124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="R124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="S124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="T124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="U124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="V124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="W124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>156</v>
       </c>
       <c r="X124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="Y124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="Z124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B125" s="1">
-        <f t="shared" ref="B125" si="9">AVERAGEA(B2:B120)</f>
+        <f t="shared" ref="B125" si="13">AVERAGEA(B2:B120)</f>
         <v>0.92436974789915971</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" ref="C125:Z125" si="10">AVERAGEA(C2:C120)</f>
+        <f t="shared" ref="C125:Z125" si="14">AVERAGEA(C2:C120)</f>
         <v>-0.42857142857142855</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.59663865546218486</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.37815126050420167</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.15966386554621848</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.1596638655462186</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.50420168067226889</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="J125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.0504201680672269</v>
       </c>
       <c r="K125" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.4033613445378148E-3</v>
       </c>
       <c r="L125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.99159663865546221</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.27731092436974791</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.35294117647058826</v>
       </c>
       <c r="O125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.83193277310924374</v>
       </c>
       <c r="P125" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.44537815126050423</v>
       </c>
       <c r="Q125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.6050420168067228</v>
       </c>
       <c r="R125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1.0168067226890756</v>
       </c>
       <c r="S125" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.4033613445378158E-2</v>
       </c>
       <c r="T125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.9327731092436975</v>
       </c>
       <c r="U125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.50420168067226889</v>
       </c>
       <c r="V125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1.5714285714285714</v>
       </c>
       <c r="W125" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-8.4033613445378158E-2</v>
       </c>
       <c r="X125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.84033613445378152</v>
       </c>
       <c r="Y125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="Z125" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
         <v>3</v>
       </c>
@@ -12645,103 +13612,103 @@
         <v>1.6128756587380715</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" ref="C126:Z126" si="11">_xlfn.VAR.S(C2:C120)</f>
+        <f t="shared" ref="C126:Z126" si="15">_xlfn.VAR.S(C2:C120)</f>
         <v>1.8232445520581113</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.9884631818829228</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.7964677396382283</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.7793761572425582</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.4234439538527275</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0317618572852871</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.70460048426150146</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.8448938897592935</v>
       </c>
       <c r="K126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.1100982765987752</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.7372169206665717</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5410910126762571</v>
       </c>
       <c r="N126" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0947158524426719</v>
       </c>
       <c r="O126" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.1579547073066516</v>
       </c>
       <c r="P126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.4863979490101125</v>
       </c>
       <c r="Q126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.59692351516877928</v>
       </c>
       <c r="R126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.2031049708018802</v>
       </c>
       <c r="S126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.2301666429283578</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.9784930921521151</v>
       </c>
       <c r="U126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.5571855860988462</v>
       </c>
       <c r="V126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.87409200968523026</v>
       </c>
       <c r="W126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.2640649480131039</v>
       </c>
       <c r="X126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.4234439538527277</v>
       </c>
       <c r="Y126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.8953140578265204</v>
       </c>
       <c r="Z126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.1236291126620142</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>2</v>
       </c>
@@ -12821,7 +13788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M128" s="3" t="s">
         <v>7</v>
       </c>
@@ -12838,18 +13805,27 @@
       <c r="Y128"/>
     </row>
     <row r="129" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M129" s="14"/>
+      <c r="M129" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="N129" s="14"/>
       <c r="O129" s="14"/>
-      <c r="P129" s="14"/>
+      <c r="P129" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="Q129" s="14"/>
       <c r="R129" s="14"/>
       <c r="S129" s="14"/>
       <c r="T129" s="14"/>
       <c r="U129" s="14"/>
-      <c r="W129"/>
+      <c r="W129" t="s">
+        <v>131</v>
+      </c>
       <c r="X129"/>
       <c r="Y129"/>
+      <c r="Z129" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W130"/>
@@ -12998,99 +13974,99 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ref="C134:Z134" si="12">CORREL($B$2:$B$120,C$2:C$120)</f>
+        <f t="shared" ref="C134:Z134" si="16">CORREL($B$2:$B$120,C$2:C$120)</f>
         <v>-0.18214478965583</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-8.8161202160043875E-2</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11153752958812362</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.283619510876386E-2</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-9.8230575298086001E-2</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.16133327699994318</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.25552332982709508</v>
       </c>
       <c r="J134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11031164095248254</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.4659755408774999E-2</v>
       </c>
       <c r="L134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11099863578608991</v>
       </c>
       <c r="M134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.8854944877100151E-2</v>
       </c>
       <c r="N134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.9902682409816795E-2</v>
       </c>
       <c r="O134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.27476490915870477</v>
       </c>
       <c r="P134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.3513598976488991E-2</v>
       </c>
       <c r="Q134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.19385862658222683</v>
       </c>
       <c r="R134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.14692834634061069</v>
       </c>
       <c r="S134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-8.5987913709947128E-2</v>
       </c>
       <c r="T134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.1361827159631528E-2</v>
       </c>
       <c r="U134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.13656238722891059</v>
       </c>
       <c r="V134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.10094298154822391</v>
       </c>
       <c r="W134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.17847236718201881</v>
       </c>
       <c r="X134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-4.1595243607084192E-2</v>
       </c>
       <c r="Y134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.22895154620379699</v>
       </c>
       <c r="Z134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-3.9056857259401501E-2</v>
       </c>
       <c r="AA134" s="6">
@@ -13103,99 +14079,99 @@
         <v>-0.18214478965583</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" ref="C135:Z135" si="13">CORREL($C$2:$C$120,C$2:C$120)</f>
+        <f t="shared" ref="C135:Z135" si="17">CORREL($C$2:$C$120,C$2:C$120)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.32681488788479279</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.3481161394546004E-2</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.10754335714866142</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.39528747038765844</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.49629293421679155</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.10360906535666387</v>
       </c>
       <c r="J135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.38087950786795938</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.34379641539660116</v>
       </c>
       <c r="L135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.40202952232214195</v>
       </c>
       <c r="M135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-6.2432447279098906E-2</v>
       </c>
       <c r="N135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.34257846731855968</v>
       </c>
       <c r="O135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.36559744351653112</v>
       </c>
       <c r="P135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.2448009128863006E-2</v>
       </c>
       <c r="Q135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-4.9900695886495219E-2</v>
       </c>
       <c r="R135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.11525634482406223</v>
       </c>
       <c r="S135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.43828004006829052</v>
       </c>
       <c r="T135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.43026299315783689</v>
       </c>
       <c r="U135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.33841391330336296</v>
       </c>
       <c r="V135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.24070917077214463</v>
       </c>
       <c r="W135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.8059244842096046E-2</v>
       </c>
       <c r="X135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-7.4398212107182879E-2</v>
       </c>
       <c r="Y135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.501473079312028</v>
       </c>
       <c r="Z135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.7374962626922056E-2</v>
       </c>
       <c r="AA135" s="6">
@@ -13208,99 +14184,99 @@
         <v>-8.8161202160043875E-2</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" ref="C136:Z136" si="14">CORREL($D$2:$D$120,C$2:C$120)</f>
+        <f t="shared" ref="C136:Z136" si="18">CORREL($D$2:$D$120,C$2:C$120)</f>
         <v>0.32681488788479279</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0354902517995009E-2</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.7115410911312557E-2</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.33076189781928195</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.26225569843282864</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-9.7165773500034525E-2</v>
       </c>
       <c r="J136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.25919202860050572</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.11831038346218617</v>
       </c>
       <c r="L136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.27997827679861809</v>
       </c>
       <c r="M136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.13312456211023102</v>
       </c>
       <c r="N136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.12847939377783699</v>
       </c>
       <c r="O136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.48711364142635638</v>
       </c>
       <c r="P136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-7.4784883205154681E-2</v>
       </c>
       <c r="Q136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-3.0787456944791836E-2</v>
       </c>
       <c r="R136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.14687611507109388</v>
       </c>
       <c r="S136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.26976350050712733</v>
       </c>
       <c r="T136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.34277718484949499</v>
       </c>
       <c r="U136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.1338774919170567</v>
       </c>
       <c r="V136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.20294337298344189</v>
       </c>
       <c r="W136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.13166978362072321</v>
       </c>
       <c r="X136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.1594971629105523</v>
       </c>
       <c r="Y136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.24189149861542253</v>
       </c>
       <c r="Z136" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.9083987564663671E-2</v>
       </c>
       <c r="AA136" s="6">
@@ -13313,99 +14289,99 @@
         <v>0.11153752958812362</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" ref="C137:Z137" si="15">CORREL($E$2:$E$120,C$2:C$120)</f>
+        <f t="shared" ref="C137:Z137" si="19">CORREL($E$2:$E$120,C$2:C$120)</f>
         <v>4.3481161394546004E-2</v>
       </c>
       <c r="D137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.0354902517995009E-2</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-2.7563447176044264E-2</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.7914260728438064E-2</v>
       </c>
       <c r="H137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-7.8465187820372581E-2</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7.7476727608193172E-2</v>
       </c>
       <c r="J137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1.2517730639381331E-3</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.23669080045742036</v>
       </c>
       <c r="L137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-7.01428717975493E-2</v>
       </c>
       <c r="M137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.1488238972052385</v>
       </c>
       <c r="N137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.12720436057296586</v>
       </c>
       <c r="O137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.9226423377449487E-2</v>
       </c>
       <c r="P137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.002756714946764E-2</v>
       </c>
       <c r="Q137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.15363322417486908</v>
       </c>
       <c r="R137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.12822228165453411</v>
       </c>
       <c r="S137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.24225681116204989</v>
       </c>
       <c r="T137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.4837848968534266E-2</v>
       </c>
       <c r="U137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.16563066050225134</v>
       </c>
       <c r="V137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1882003570634011E-2</v>
       </c>
       <c r="W137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.20498359404656391</v>
       </c>
       <c r="X137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7.5173293186625148E-2</v>
       </c>
       <c r="Y137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-3.2959346998137296E-2</v>
       </c>
       <c r="Z137" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-5.3596856596641269E-2</v>
       </c>
       <c r="AA137" s="6">
@@ -13418,99 +14394,99 @@
         <v>4.283619510876386E-2</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" ref="C138:Z138" si="16">CORREL($F$2:$F$120,C$2:C$120)</f>
+        <f t="shared" ref="C138:Z138" si="20">CORREL($F$2:$F$120,C$2:C$120)</f>
         <v>0.10754335714866142</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.7115410911312557E-2</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.7563447176044264E-2</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.11207317362316E-2</v>
       </c>
       <c r="H138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.13183885112665208</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.3786869030294228E-2</v>
       </c>
       <c r="J138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3190144951251889E-2</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.14502500441352792</v>
       </c>
       <c r="L138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.20649519651887238</v>
       </c>
       <c r="M138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.15037421691826902</v>
       </c>
       <c r="N138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.11541975584565882</v>
       </c>
       <c r="O138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-8.1334737140329738E-2</v>
       </c>
       <c r="P138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.22376264152938505</v>
       </c>
       <c r="Q138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.2368893066642905E-2</v>
       </c>
       <c r="R138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.19508015865187464</v>
       </c>
       <c r="S138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21867894524070053</v>
       </c>
       <c r="T138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.11166383701469335</v>
       </c>
       <c r="U138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.16077693163343895</v>
       </c>
       <c r="V138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.2513768024165601E-2</v>
       </c>
       <c r="W138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.11148049489340067</v>
       </c>
       <c r="X138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.10099468544210755</v>
       </c>
       <c r="Y138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.17970186541018943</v>
       </c>
       <c r="Z138" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.26106198185287238</v>
       </c>
       <c r="AA138" s="6">
@@ -13523,99 +14499,99 @@
         <v>-9.8230575298086001E-2</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" ref="C139:Z139" si="17">CORREL($G$2:$G$120,C$2:C$120)</f>
+        <f t="shared" ref="C139:Z139" si="21">CORREL($G$2:$G$120,C$2:C$120)</f>
         <v>0.39528747038765844</v>
       </c>
       <c r="D139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.33076189781928195</v>
       </c>
       <c r="E139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.7914260728438064E-2</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2.11207317362316E-2</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="H139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.435635278345685</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.15352602971951751</v>
       </c>
       <c r="J139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.25079739520044575</v>
       </c>
       <c r="K139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.32840138427998289</v>
       </c>
       <c r="L139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.17698170509936423</v>
       </c>
       <c r="M139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.13487592732820733</v>
       </c>
       <c r="N139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.35480375582832596</v>
       </c>
       <c r="O139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.12478417128398646</v>
       </c>
       <c r="P139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.7020639301301878E-2</v>
       </c>
       <c r="Q139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.2216440613423887E-2</v>
       </c>
       <c r="R139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8.6253822598997998E-2</v>
       </c>
       <c r="S139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.32059792249553865</v>
       </c>
       <c r="T139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.28139255579091083</v>
       </c>
       <c r="U139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.25375583998261037</v>
       </c>
       <c r="V139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.15846160386148589</v>
       </c>
       <c r="W139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.15387787645682835</v>
       </c>
       <c r="X139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.1307784670802481</v>
       </c>
       <c r="Y139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.3299041945864789</v>
       </c>
       <c r="Z139" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.856156257298888E-2</v>
       </c>
       <c r="AA139" s="6">
@@ -13628,99 +14604,99 @@
         <v>-0.16133327699994318</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" ref="C140:Z140" si="18">CORREL($H$2:$H$120,C$2:C$120)</f>
+        <f t="shared" ref="C140:Z140" si="22">CORREL($H$2:$H$120,C$2:C$120)</f>
         <v>0.49629293421679155</v>
       </c>
       <c r="D140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.26225569843282864</v>
       </c>
       <c r="E140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-7.8465187820372581E-2</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.13183885112665208</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.435635278345685</v>
       </c>
       <c r="H140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.922497056300021E-2</v>
       </c>
       <c r="J140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.39405789991326584</v>
       </c>
       <c r="K140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.21489400963115349</v>
       </c>
       <c r="L140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.22777696841973272</v>
       </c>
       <c r="M140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-5.086780989479369E-2</v>
       </c>
       <c r="N140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.28682752740633899</v>
       </c>
       <c r="O140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.24249511657187131</v>
       </c>
       <c r="P140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-6.3052511031610511E-2</v>
       </c>
       <c r="Q140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.3062510584705197E-2</v>
       </c>
       <c r="R140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.15181622313790993</v>
       </c>
       <c r="S140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.28249723186560727</v>
       </c>
       <c r="T140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.3210966622440013</v>
       </c>
       <c r="U140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.20130738682806631</v>
       </c>
       <c r="V140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.15443790350888018</v>
       </c>
       <c r="W140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8.314277466738125E-2</v>
       </c>
       <c r="X140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.20142321338486413</v>
       </c>
       <c r="Y140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.33786539992541892</v>
       </c>
       <c r="Z140" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.16127335014570013</v>
       </c>
       <c r="AA140" s="6">
@@ -13733,99 +14709,99 @@
         <v>0.25552332982709508</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" ref="C141:Z141" si="19">CORREL($I$2:$I$120,C$2:C$120)</f>
+        <f t="shared" ref="C141:Z141" si="23">CORREL($I$2:$I$120,C$2:C$120)</f>
         <v>-0.10360906535666387</v>
       </c>
       <c r="D141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-9.7165773500034525E-2</v>
       </c>
       <c r="E141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>7.7476727608193172E-2</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-2.3786869030294228E-2</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.15352602971951751</v>
       </c>
       <c r="H141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.922497056300021E-2</v>
       </c>
       <c r="I141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.35359573766636215</v>
       </c>
       <c r="K141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.3829140851003613E-2</v>
       </c>
       <c r="L141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.18821312498082488</v>
       </c>
       <c r="M141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.5905660175428023E-2</v>
       </c>
       <c r="N141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-6.975638473724767E-3</v>
       </c>
       <c r="O141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-5.7926772692687492E-2</v>
       </c>
       <c r="P141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8.1405391864328921E-2</v>
       </c>
       <c r="Q141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.33788406854182784</v>
       </c>
       <c r="R141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.9723681573208564E-2</v>
       </c>
       <c r="S141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-3.1870858785940169E-2</v>
       </c>
       <c r="T141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-0.2912054877170282</v>
       </c>
       <c r="U141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8.6684123033595517E-2</v>
       </c>
       <c r="V141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.1651790282986385E-2</v>
       </c>
       <c r="W141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.20608315922245465</v>
       </c>
       <c r="X141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.19341862011907732</v>
       </c>
       <c r="Y141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.25666932971464768</v>
       </c>
       <c r="Z141" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-2.7711955959579735E-2</v>
       </c>
       <c r="AA141" s="6">
@@ -13838,99 +14814,99 @@
         <v>0.11031164095248254</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" ref="C142:Z142" si="20">CORREL($J$2:$J$120,C$2:C$120)</f>
+        <f t="shared" ref="C142:Z142" si="24">CORREL($J$2:$J$120,C$2:C$120)</f>
         <v>-0.38087950786795938</v>
       </c>
       <c r="D142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.25919202860050572</v>
       </c>
       <c r="E142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-1.2517730639381331E-3</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.3190144951251889E-2</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.25079739520044575</v>
       </c>
       <c r="H142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.39405789991326584</v>
       </c>
       <c r="I142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.35359573766636215</v>
       </c>
       <c r="J142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="K142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.19306635240865708</v>
       </c>
       <c r="L142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.43574362924168752</v>
       </c>
       <c r="M142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-3.7824488634140847E-2</v>
       </c>
       <c r="N142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.33675875123869548</v>
       </c>
       <c r="O142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.21664709178461342</v>
       </c>
       <c r="P142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4.0865037190951588E-2</v>
       </c>
       <c r="Q142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.10796827700400775</v>
       </c>
       <c r="R142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-5.1146668675823605E-3</v>
       </c>
       <c r="S142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.27785148556861033</v>
       </c>
       <c r="T142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.42761920743098453</v>
       </c>
       <c r="U142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.20987013413071887</v>
       </c>
       <c r="V142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.15730394904327399</v>
       </c>
       <c r="W142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-3.108177046425066E-2</v>
       </c>
       <c r="X142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.29786310577687403</v>
       </c>
       <c r="Y142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.39508540522783692</v>
       </c>
       <c r="Z142" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.11837006818957803</v>
       </c>
       <c r="AA142" s="6">
@@ -13943,99 +14919,99 @@
         <v>6.4659755408774999E-2</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" ref="C143:Z143" si="21">CORREL($K$2:$K$120,C$2:C$120)</f>
+        <f t="shared" ref="C143:Z143" si="25">CORREL($K$2:$K$120,C$2:C$120)</f>
         <v>-0.34379641539660116</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.11831038346218617</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.23669080045742036</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.14502500441352792</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.32840138427998289</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.21489400963115349</v>
       </c>
       <c r="I143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.3829140851003613E-2</v>
       </c>
       <c r="J143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.19306635240865708</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.27446702495223202</v>
       </c>
       <c r="M143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.6562410464525063E-2</v>
       </c>
       <c r="N143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.35211264681383642</v>
       </c>
       <c r="O143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.14760989343415931</v>
       </c>
       <c r="P143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.11264260992621762</v>
       </c>
       <c r="Q143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-5.7426047417467381E-2</v>
       </c>
       <c r="R143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-2.6504683508668209E-2</v>
       </c>
       <c r="S143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.54334449432543219</v>
       </c>
       <c r="T143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.27402201796647907</v>
       </c>
       <c r="U143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.31555364576029138</v>
       </c>
       <c r="V143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-5.2594707940487033E-2</v>
       </c>
       <c r="W143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-5.0078246882594095E-2</v>
       </c>
       <c r="X143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8.3908361699164852E-2</v>
       </c>
       <c r="Y143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.32430558997518183</v>
       </c>
       <c r="Z143" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.2388778300499448E-3</v>
       </c>
       <c r="AA143" s="6">
@@ -14048,99 +15024,99 @@
         <v>0.11099863578608991</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" ref="C144:Z144" si="22">CORREL($L$2:$L$120,C$2:C$120)</f>
+        <f t="shared" ref="C144:Z144" si="26">CORREL($L$2:$L$120,C$2:C$120)</f>
         <v>-0.40202952232214195</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.27997827679861809</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-7.01428717975493E-2</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.20649519651887238</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.17698170509936423</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.22777696841973272</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.18821312498082488</v>
       </c>
       <c r="J144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.43574362924168752</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.27446702495223202</v>
       </c>
       <c r="L144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="M144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.11988613400536688</v>
       </c>
       <c r="N144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.46045308844856297</v>
       </c>
       <c r="O144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.39318826593373002</v>
       </c>
       <c r="P144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.1327450400459651</v>
       </c>
       <c r="Q144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-1.9931019865757505E-2</v>
       </c>
       <c r="R144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.22851600231347036</v>
       </c>
       <c r="S144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.36991009953442228</v>
       </c>
       <c r="T144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.44309243533034198</v>
       </c>
       <c r="U144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.29113976233532995</v>
       </c>
       <c r="V144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-6.5824740378209526E-2</v>
       </c>
       <c r="W144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.14991878200683179</v>
       </c>
       <c r="X144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.25242989360897039</v>
       </c>
       <c r="Y144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.47857455553513317</v>
       </c>
       <c r="Z144" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.1541661957274959</v>
       </c>
       <c r="AA144" s="6">
@@ -14153,99 +15129,99 @@
         <v>-1.8854944877100151E-2</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" ref="C145:Z145" si="23">CORREL($M$2:$M$120,C$2:C$120)</f>
+        <f t="shared" ref="C145:Z145" si="27">CORREL($M$2:$M$120,C$2:C$120)</f>
         <v>-6.2432447279098906E-2</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.13312456211023102</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.1488238972052385</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.15037421691826902</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.13487592732820733</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-5.086780989479369E-2</v>
       </c>
       <c r="I145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.5905660175428023E-2</v>
       </c>
       <c r="J145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-3.7824488634140847E-2</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.6562410464525063E-2</v>
       </c>
       <c r="L145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.11988613400536688</v>
       </c>
       <c r="M145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="N145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-2.3335663681629842E-2</v>
       </c>
       <c r="O145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.3490647378327969</v>
       </c>
       <c r="P145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.1248920181749485E-2</v>
       </c>
       <c r="Q145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.5278909826367843E-2</v>
       </c>
       <c r="R145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.3899035770872446</v>
       </c>
       <c r="S145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3.2846916273464644E-2</v>
       </c>
       <c r="T145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-3.1062221113246732E-2</v>
       </c>
       <c r="U145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-6.9811238865750075E-3</v>
       </c>
       <c r="V145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.12997243341688675</v>
       </c>
       <c r="W145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.11579267519820276</v>
       </c>
       <c r="X145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.1170522345441356</v>
       </c>
       <c r="Y145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>8.291082445887131E-2</v>
       </c>
       <c r="Z145" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-3.6695747298216418E-2</v>
       </c>
       <c r="AA145" s="6">
@@ -14258,99 +15234,99 @@
         <v>4.9902682409816795E-2</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ref="C146:Z146" si="24">CORREL($N$2:$N$120,C$2:C$120)</f>
+        <f t="shared" ref="C146:Z146" si="28">CORREL($N$2:$N$120,C$2:C$120)</f>
         <v>-0.34257846731855968</v>
       </c>
       <c r="D146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.12847939377783699</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.12720436057296586</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.11541975584565882</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.35480375582832596</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.28682752740633899</v>
       </c>
       <c r="I146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-6.975638473724767E-3</v>
       </c>
       <c r="J146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.33675875123869548</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.35211264681383642</v>
       </c>
       <c r="L146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.46045308844856297</v>
       </c>
       <c r="M146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-2.3335663681629842E-2</v>
       </c>
       <c r="N146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.23493789356007458</v>
       </c>
       <c r="P146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.13106068773519017</v>
       </c>
       <c r="Q146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-3.477296876272179E-2</v>
       </c>
       <c r="R146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.19374919871666663</v>
       </c>
       <c r="S146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.46843331784468556</v>
       </c>
       <c r="T146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.40036582520398439</v>
       </c>
       <c r="U146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.31990406601702359</v>
       </c>
       <c r="V146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.15031007779924754</v>
       </c>
       <c r="W146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.18884957840941466</v>
       </c>
       <c r="X146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.13395357421020626</v>
       </c>
       <c r="Y146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.352014065592679</v>
       </c>
       <c r="Z146" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8.2488347492546285E-2</v>
       </c>
       <c r="AA146" s="6">
@@ -14363,99 +15339,99 @@
         <v>-0.27476490915870477</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" ref="C147:Z147" si="25">CORREL($O$2:$O$120,C$2:C$120)</f>
+        <f t="shared" ref="C147:Z147" si="29">CORREL($O$2:$O$120,C$2:C$120)</f>
         <v>0.36559744351653112</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.48711364142635638</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9226423377449487E-2</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-8.1334737140329738E-2</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.12478417128398646</v>
       </c>
       <c r="H147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.24249511657187131</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-5.7926772692687492E-2</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.21664709178461342</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.14760989343415931</v>
       </c>
       <c r="L147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.39318826593373002</v>
       </c>
       <c r="M147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3490647378327969</v>
       </c>
       <c r="N147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.23493789356007458</v>
       </c>
       <c r="O147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.17594960459177295</v>
       </c>
       <c r="Q147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.1202225760656362</v>
       </c>
       <c r="R147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.15075781262368698</v>
       </c>
       <c r="S147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.33731725360387321</v>
       </c>
       <c r="T147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.36771073991190234</v>
       </c>
       <c r="U147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.37947688952557662</v>
       </c>
       <c r="V147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.33584987473394107</v>
       </c>
       <c r="W147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.2709898728404172</v>
       </c>
       <c r="X147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-4.2583461903490001E-2</v>
       </c>
       <c r="Y147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.32438682433003219</v>
       </c>
       <c r="Z147" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.10362596419666328</v>
       </c>
       <c r="AA147" s="6">
@@ -14468,99 +15444,99 @@
         <v>6.3513598976488991E-2</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" ref="C148:Z148" si="26">CORREL($P$2:$P$120,C$2:C$120)</f>
+        <f t="shared" ref="C148:Z148" si="30">CORREL($P$2:$P$120,C$2:C$120)</f>
         <v>8.2448009128863006E-2</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-7.4784883205154681E-2</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>8.002756714946764E-2</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.22376264152938505</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>9.7020639301301878E-2</v>
       </c>
       <c r="H148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-6.3052511031610511E-2</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>8.1405391864328921E-2</v>
       </c>
       <c r="J148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4.0865037190951588E-2</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.11264260992621762</v>
       </c>
       <c r="L148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.1327450400459651</v>
       </c>
       <c r="M148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.1248920181749485E-2</v>
       </c>
       <c r="N148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.13106068773519017</v>
       </c>
       <c r="O148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.17594960459177295</v>
       </c>
       <c r="P148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.2082189648577204</v>
       </c>
       <c r="R148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-8.8732195170677555E-2</v>
       </c>
       <c r="S148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.15311755351276363</v>
       </c>
       <c r="T148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2.8897545230377266E-2</v>
       </c>
       <c r="U148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.21845639140154974</v>
       </c>
       <c r="V148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>9.361833424764418E-2</v>
       </c>
       <c r="W148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3.3767102316744117E-2</v>
       </c>
       <c r="X148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.10568928011285003</v>
       </c>
       <c r="Y148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-3.6742029591663432E-3</v>
       </c>
       <c r="Z148" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.25403953652950756</v>
       </c>
       <c r="AA148" s="6">
@@ -14573,99 +15549,99 @@
         <v>0.19385862658222683</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" ref="C149:Z149" si="27">CORREL($Q$2:$Q$120,C$2:C$120)</f>
+        <f t="shared" ref="C149:Z149" si="31">CORREL($Q$2:$Q$120,C$2:C$120)</f>
         <v>-4.9900695886495219E-2</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-3.0787456944791836E-2</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.15363322417486908</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-1.2368893066642905E-2</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2216440613423887E-2</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.3062510584705197E-2</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.33788406854182784</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.10796827700400775</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-5.7426047417467381E-2</v>
       </c>
       <c r="L149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-1.9931019865757505E-2</v>
       </c>
       <c r="M149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.5278909826367843E-2</v>
       </c>
       <c r="N149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-3.477296876272179E-2</v>
       </c>
       <c r="O149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.1202225760656362</v>
       </c>
       <c r="P149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.2082189648577204</v>
       </c>
       <c r="Q149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-7.7900395209908962E-2</v>
       </c>
       <c r="S149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-2.2405242798754707E-2</v>
       </c>
       <c r="T149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-4.5543795720906208E-2</v>
       </c>
       <c r="U149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-2.6591571301047062E-3</v>
       </c>
       <c r="V149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.340824758451111E-2</v>
       </c>
       <c r="W149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-6.5240435983058301E-2</v>
       </c>
       <c r="X149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.5582014297170393E-3</v>
       </c>
       <c r="Y149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.4839623285128322E-2</v>
       </c>
       <c r="Z149" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.25414541824091613</v>
       </c>
       <c r="AA149" s="6">
@@ -14678,99 +15654,99 @@
         <v>-0.14692834634061069</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" ref="C150:Z150" si="28">CORREL($R$2:$R$120,C$2:C$120)</f>
+        <f t="shared" ref="C150:Z150" si="32">CORREL($R$2:$R$120,C$2:C$120)</f>
         <v>0.11525634482406223</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.14687611507109388</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.12822228165453411</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.19508015865187464</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>8.6253822598997998E-2</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.15181622313790993</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.9723681573208564E-2</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-5.1146668675823605E-3</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-2.6504683508668209E-2</v>
       </c>
       <c r="L150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.22851600231347036</v>
       </c>
       <c r="M150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.3899035770872446</v>
       </c>
       <c r="N150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.19374919871666663</v>
       </c>
       <c r="O150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.15075781262368698</v>
       </c>
       <c r="P150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-8.8732195170677555E-2</v>
       </c>
       <c r="Q150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-7.7900395209908962E-2</v>
       </c>
       <c r="R150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-2.4998759449622071E-2</v>
       </c>
       <c r="T150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.12010450393608642</v>
       </c>
       <c r="U150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-3.7096984880948057E-2</v>
       </c>
       <c r="V150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.7986830326500282E-2</v>
       </c>
       <c r="W150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-4.7076002883888621E-2</v>
       </c>
       <c r="X150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>7.5642153572622869E-2</v>
       </c>
       <c r="Y150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.3342494837538962E-2</v>
       </c>
       <c r="Z150" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.24856289411024246</v>
       </c>
       <c r="AA150" s="6">
@@ -14783,99 +15759,99 @@
         <v>-8.5987913709947128E-2</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" ref="C151:Z151" si="29">CORREL($S$2:$S$120,C$2:C$120)</f>
+        <f t="shared" ref="C151:Z151" si="33">CORREL($S$2:$S$120,C$2:C$120)</f>
         <v>0.43828004006829052</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.26976350050712733</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.24225681116204989</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.21867894524070053</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.32059792249553865</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.28249723186560727</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-3.1870858785940169E-2</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.27785148556861033</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.54334449432543219</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.36991009953442228</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3.2846916273464644E-2</v>
       </c>
       <c r="N151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.46843331784468556</v>
       </c>
       <c r="O151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.33731725360387321</v>
       </c>
       <c r="P151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.15311755351276363</v>
       </c>
       <c r="Q151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-2.2405242798754707E-2</v>
       </c>
       <c r="R151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-2.4998759449622071E-2</v>
       </c>
       <c r="S151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="T151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.46931595969871104</v>
       </c>
       <c r="U151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.47313808691311676</v>
       </c>
       <c r="V151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>8.324227726881181E-2</v>
       </c>
       <c r="W151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>8.9911919363836565E-2</v>
       </c>
       <c r="X151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-7.802108773361062E-2</v>
       </c>
       <c r="Y151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.50991653408828075</v>
       </c>
       <c r="Z151" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-3.2756471647741835E-2</v>
       </c>
       <c r="AA151" s="6">
@@ -14888,99 +15864,99 @@
         <v>-1.1361827159631528E-2</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" ref="C152:Z152" si="30">CORREL($T$2:$T$120,C$2:C$120)</f>
+        <f t="shared" ref="C152:Z152" si="34">CORREL($T$2:$T$120,C$2:C$120)</f>
         <v>0.43026299315783689</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.34277718484949499</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.4837848968534266E-2</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.11166383701469335</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.28139255579091083</v>
       </c>
       <c r="H152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.3210966622440013</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.2912054877170282</v>
       </c>
       <c r="J152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.42761920743098453</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.27402201796647907</v>
       </c>
       <c r="L152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.44309243533034198</v>
       </c>
       <c r="M152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-3.1062221113246732E-2</v>
       </c>
       <c r="N152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.40036582520398439</v>
       </c>
       <c r="O152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.36771073991190234</v>
       </c>
       <c r="P152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.8897545230377266E-2</v>
       </c>
       <c r="Q152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-4.5543795720906208E-2</v>
       </c>
       <c r="R152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.12010450393608642</v>
       </c>
       <c r="S152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.46931595969871104</v>
       </c>
       <c r="T152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="U152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.34296076845262818</v>
       </c>
       <c r="V152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.15834434406291359</v>
       </c>
       <c r="W152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.10679876830063741</v>
       </c>
       <c r="X152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.22079406843313398</v>
       </c>
       <c r="Y152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.66417254053371766</v>
       </c>
       <c r="Z152" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-1.8726352412337069E-2</v>
       </c>
       <c r="AA152" s="6">
@@ -14993,99 +15969,99 @@
         <v>0.13656238722891059</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" ref="C153:Z153" si="31">CORREL($U$2:$U$120,C$2:C$120)</f>
+        <f t="shared" ref="C153:Z153" si="35">CORREL($U$2:$U$120,C$2:C$120)</f>
         <v>-0.33841391330336296</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.1338774919170567</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.16563066050225134</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.16077693163343895</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.25375583998261037</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.20130738682806631</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.6684123033595517E-2</v>
       </c>
       <c r="J153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.20987013413071887</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.31555364576029138</v>
       </c>
       <c r="L153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.29113976233532995</v>
       </c>
       <c r="M153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-6.9811238865750075E-3</v>
       </c>
       <c r="N153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.31990406601702359</v>
       </c>
       <c r="O153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.37947688952557662</v>
       </c>
       <c r="P153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.21845639140154974</v>
       </c>
       <c r="Q153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-2.6591571301047062E-3</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-3.7096984880948057E-2</v>
       </c>
       <c r="S153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.47313808691311676</v>
       </c>
       <c r="T153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.34296076845262818</v>
       </c>
       <c r="U153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.12141072479661207</v>
       </c>
       <c r="W153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-1.78639424256299E-2</v>
       </c>
       <c r="X153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.7453500981410752E-2</v>
       </c>
       <c r="Y153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.41320758134531738</v>
       </c>
       <c r="Z153" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.042863896605023E-2</v>
       </c>
       <c r="AA153" s="6">
@@ -15098,99 +16074,99 @@
         <v>-0.10094298154822391</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" ref="C154:Z154" si="32">CORREL($V$2:$V$120,C$2:C$120)</f>
+        <f t="shared" ref="C154:Z154" si="36">CORREL($V$2:$V$120,C$2:C$120)</f>
         <v>0.24070917077214463</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.20294337298344189</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.1882003570634011E-2</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.2513768024165601E-2</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.15846160386148589</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.15443790350888018</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.1651790282986385E-2</v>
       </c>
       <c r="J154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-0.15730394904327399</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-5.2594707940487033E-2</v>
       </c>
       <c r="L154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-6.5824740378209526E-2</v>
       </c>
       <c r="M154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.12997243341688675</v>
       </c>
       <c r="N154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-0.15031007779924754</v>
       </c>
       <c r="O154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.33584987473394107</v>
       </c>
       <c r="P154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.361833424764418E-2</v>
       </c>
       <c r="Q154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.340824758451111E-2</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.7986830326500282E-2</v>
       </c>
       <c r="S154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.324227726881181E-2</v>
       </c>
       <c r="T154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.15834434406291359</v>
       </c>
       <c r="U154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-0.12141072479661207</v>
       </c>
       <c r="V154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="W154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.2487108774982342</v>
       </c>
       <c r="X154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.13783988829047064</v>
       </c>
       <c r="Y154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-7.242550145145131E-2</v>
       </c>
       <c r="Z154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.19282430566250197</v>
       </c>
       <c r="AA154" s="6">
@@ -15203,99 +16179,99 @@
         <v>0.17847236718201881</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" ref="C155:Z155" si="33">CORREL($W$2:$W$120,C$2:C$120)</f>
+        <f t="shared" ref="C155:Z155" si="37">CORREL($W$2:$W$120,C$2:C$120)</f>
         <v>7.8059244842096046E-2</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.13166978362072321</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.20498359404656391</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.11148049489340067</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.15387787645682835</v>
       </c>
       <c r="H155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8.314277466738125E-2</v>
       </c>
       <c r="I155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.20608315922245465</v>
       </c>
       <c r="J155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-3.108177046425066E-2</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-5.0078246882594095E-2</v>
       </c>
       <c r="L155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-0.14991878200683179</v>
       </c>
       <c r="M155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.11579267519820276</v>
       </c>
       <c r="N155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-0.18884957840941466</v>
       </c>
       <c r="O155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.2709898728404172</v>
       </c>
       <c r="P155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3.3767102316744117E-2</v>
       </c>
       <c r="Q155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-6.5240435983058301E-2</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-4.7076002883888621E-2</v>
       </c>
       <c r="S155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8.9911919363836565E-2</v>
       </c>
       <c r="T155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.10679876830063741</v>
       </c>
       <c r="U155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-1.78639424256299E-2</v>
       </c>
       <c r="V155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.2487108774982342</v>
       </c>
       <c r="W155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.19073081464409156</v>
       </c>
       <c r="Y155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-1.3476343302516819E-2</v>
       </c>
       <c r="Z155" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.31851026312940606</v>
       </c>
       <c r="AA155" s="6">
@@ -15308,99 +16284,99 @@
         <v>-4.1595243607084192E-2</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" ref="C156:Z156" si="34">CORREL($X$2:$X$120,C$2:C$120)</f>
+        <f t="shared" ref="C156:Z156" si="38">CORREL($X$2:$X$120,C$2:C$120)</f>
         <v>-7.4398212107182879E-2</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.1594971629105523</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7.5173293186625148E-2</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.10099468544210755</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.1307784670802481</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.20142321338486413</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.19341862011907732</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.29786310577687403</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8.3908361699164852E-2</v>
       </c>
       <c r="L156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.25242989360897039</v>
       </c>
       <c r="M156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.1170522345441356</v>
       </c>
       <c r="N156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.13395357421020626</v>
       </c>
       <c r="O156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-4.2583461903490001E-2</v>
       </c>
       <c r="P156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.10568928011285003</v>
       </c>
       <c r="Q156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4.5582014297170393E-3</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7.5642153572622869E-2</v>
       </c>
       <c r="S156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-7.802108773361062E-2</v>
       </c>
       <c r="T156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.22079406843313398</v>
       </c>
       <c r="U156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3.7453500981410752E-2</v>
       </c>
       <c r="V156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.13783988829047064</v>
       </c>
       <c r="W156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.19073081464409156</v>
       </c>
       <c r="X156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Y156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2473522710101016</v>
       </c>
       <c r="Z156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.16027705649014895</v>
       </c>
       <c r="AA156" s="6">
@@ -15413,99 +16389,99 @@
         <v>0.22895154620379699</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" ref="C157:Z157" si="35">CORREL($Y$2:$Y$120,C$2:C$120)</f>
+        <f t="shared" ref="C157:Z157" si="39">CORREL($Y$2:$Y$120,C$2:C$120)</f>
         <v>-0.501473079312028</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.24189149861542253</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-3.2959346998137296E-2</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.17970186541018943</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.3299041945864789</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.33786539992541892</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.25666932971464768</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.39508540522783692</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.32430558997518183</v>
       </c>
       <c r="L157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.47857455553513317</v>
       </c>
       <c r="M157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>8.291082445887131E-2</v>
       </c>
       <c r="N157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.352014065592679</v>
       </c>
       <c r="O157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.32438682433003219</v>
       </c>
       <c r="P157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-3.6742029591663432E-3</v>
       </c>
       <c r="Q157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.4839623285128322E-2</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3.3342494837538962E-2</v>
       </c>
       <c r="S157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.50991653408828075</v>
       </c>
       <c r="T157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.66417254053371766</v>
       </c>
       <c r="U157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.41320758134531738</v>
       </c>
       <c r="V157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-7.242550145145131E-2</v>
       </c>
       <c r="W157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-1.3476343302516819E-2</v>
       </c>
       <c r="X157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2473522710101016</v>
       </c>
       <c r="Y157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Z157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5.1932045663466458E-2</v>
       </c>
       <c r="AA157" s="6">
@@ -15518,99 +16494,99 @@
         <v>-3.9056857259401501E-2</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" ref="C158:Z158" si="36">CORREL($Z$2:$Z$120,C$2:C$120)</f>
+        <f t="shared" ref="C158:Z158" si="40">CORREL($Z$2:$Z$120,C$2:C$120)</f>
         <v>4.7374962626922056E-2</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7.9083987564663671E-2</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-5.3596856596641269E-2</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.26106198185287238</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7.856156257298888E-2</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.16127335014570013</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-2.7711955959579735E-2</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.11837006818957803</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.2388778300499448E-3</v>
       </c>
       <c r="L158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.1541661957274959</v>
       </c>
       <c r="M158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-3.6695747298216418E-2</v>
       </c>
       <c r="N158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8.2488347492546285E-2</v>
       </c>
       <c r="O158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.10362596419666328</v>
       </c>
       <c r="P158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.25403953652950756</v>
       </c>
       <c r="Q158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.25414541824091613</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.24856289411024246</v>
       </c>
       <c r="S158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-3.2756471647741835E-2</v>
       </c>
       <c r="T158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-1.8726352412337069E-2</v>
       </c>
       <c r="U158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3.042863896605023E-2</v>
       </c>
       <c r="V158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.19282430566250197</v>
       </c>
       <c r="W158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.31851026312940606</v>
       </c>
       <c r="X158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.16027705649014895</v>
       </c>
       <c r="Y158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.1932045663466458E-2</v>
       </c>
       <c r="Z158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AA158" s="6">
@@ -15673,7 +16649,7 @@
     <mergeCell ref="B131:X131"/>
   </mergeCells>
   <conditionalFormatting sqref="B134:Z158">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
@@ -15685,7 +16661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:Z126">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15697,7 +16673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:Z125">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="-2"/>
         <cfvo type="num" val="0"/>
@@ -15709,7 +16685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:Z124">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15721,7 +16697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA120">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15735,7 +16711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB120">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15749,7 +16725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD120">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15761,11 +16737,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC120">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="-2"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE120">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -15777,25 +16765,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{4962C10C-FCE2-49B7-BDF4-E249BB1014FD}">
-            <x14:iconSet iconSet="3Stars" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>-0.4</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0.4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Stars" iconId="2"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Stars" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>B134:Z158</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AAEDE8F9-8F94-445E-A655-34516B57D094}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -15822,6 +16791,25 @@
           </x14:cfRule>
           <xm:sqref>AB2:AB120</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{4962C10C-FCE2-49B7-BDF4-E249BB1014FD}">
+            <x14:iconSet iconSet="3Stars" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>-0.4</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Stars" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Stars" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B134:Z158</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -15833,7 +16821,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
